--- a/output/fit_clients/fit_round_431.xlsx
+++ b/output/fit_clients/fit_round_431.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,16 +469,6 @@
           <t>isSelected</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>reward</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -490,28 +480,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1594267123.4912</v>
+        <v>2409093717.442879</v>
       </c>
       <c r="F2" t="n">
-        <v>0.08751656200673508</v>
+        <v>0.1056397435005978</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03638961058616876</v>
+        <v>0.04271059482114497</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>1</v>
-      </c>
-      <c r="J2" t="n">
-        <v>797133502.8858939</v>
       </c>
     </row>
     <row r="3">
@@ -524,28 +508,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>1603672205.774394</v>
+        <v>1917702377.464481</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1639806040718656</v>
+        <v>0.112415280305523</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03237038709812756</v>
+        <v>0.03525558419223031</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>9</v>
-      </c>
-      <c r="J3" t="n">
-        <v>801836081.5923904</v>
       </c>
     </row>
     <row r="4">
@@ -564,22 +542,16 @@
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4179278332.319173</v>
+        <v>3713044830.105321</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1279190926557796</v>
+        <v>0.1097905481554396</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02383020158920724</v>
+        <v>0.03219273615703602</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>156</v>
-      </c>
-      <c r="J4" t="n">
-        <v>2089639193.052059</v>
       </c>
     </row>
     <row r="5">
@@ -592,28 +564,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>2724632102.061472</v>
+        <v>3679132607.875594</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1027918768284039</v>
+        <v>0.07788510186810327</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04597942667627508</v>
+        <v>0.04898787623207104</v>
       </c>
       <c r="H5" t="b">
-        <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>159</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1362316139.123396</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -626,28 +592,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2044983402.919151</v>
+        <v>2234027080.858612</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1103072265605271</v>
+        <v>0.1405057358232706</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04527941562613814</v>
+        <v>0.04542726928054341</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>81</v>
-      </c>
-      <c r="J6" t="n">
-        <v>1022491726.205449</v>
       </c>
     </row>
     <row r="7">
@@ -660,28 +620,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2068860427.944947</v>
+        <v>2507713597.110297</v>
       </c>
       <c r="F7" t="n">
-        <v>0.06132630379557542</v>
+        <v>0.09672108569705633</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03125414669236282</v>
+        <v>0.03075485210990646</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>135</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1034430268.500355</v>
       </c>
     </row>
     <row r="8">
@@ -700,22 +654,16 @@
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>2585632028.142212</v>
+        <v>2442354503.781273</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1865354088537448</v>
+        <v>0.1988278148824999</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02485686645538661</v>
+        <v>0.0328945990674731</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>137</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1292816029.239613</v>
       </c>
     </row>
     <row r="9">
@@ -734,22 +682,16 @@
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1404618375.863457</v>
+        <v>1914416827.211815</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1855191364411985</v>
+        <v>0.1295842643409312</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02445830654582752</v>
+        <v>0.02510831078186535</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>702309297.1646658</v>
       </c>
     </row>
     <row r="10">
@@ -762,28 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4569462261.923586</v>
+        <v>5920003816.299887</v>
       </c>
       <c r="F10" t="n">
-        <v>0.2019983147468772</v>
+        <v>0.1871493234761543</v>
       </c>
       <c r="G10" t="n">
-        <v>0.03993183783359215</v>
+        <v>0.04903217977615976</v>
       </c>
       <c r="H10" t="b">
-        <v>1</v>
-      </c>
-      <c r="I10" t="n">
-        <v>181</v>
-      </c>
-      <c r="J10" t="n">
-        <v>2284731196.990115</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -796,28 +732,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>2975301496.358753</v>
+        <v>2580470928.67329</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1281159025848406</v>
+        <v>0.1697464763655327</v>
       </c>
       <c r="G11" t="n">
-        <v>0.0332855179195705</v>
+        <v>0.04213915979064727</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>178</v>
-      </c>
-      <c r="J11" t="n">
-        <v>1487650689.424578</v>
       </c>
     </row>
     <row r="12">
@@ -836,22 +766,16 @@
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>3070274109.233294</v>
+        <v>2222386969.71745</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1262157556318605</v>
+        <v>0.1701830185047475</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04789662811026412</v>
+        <v>0.04429140144951763</v>
       </c>
       <c r="H12" t="b">
         <v>1</v>
-      </c>
-      <c r="I12" t="n">
-        <v>147</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1535137079.085962</v>
       </c>
     </row>
     <row r="13">
@@ -864,28 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>3746515941.648445</v>
+        <v>4733771123.606297</v>
       </c>
       <c r="F13" t="n">
-        <v>0.08287533836789256</v>
+        <v>0.07230282741724813</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02600595235590491</v>
+        <v>0.02065725643224152</v>
       </c>
       <c r="H13" t="b">
         <v>0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>145</v>
-      </c>
-      <c r="J13" t="n">
-        <v>1873258038.645275</v>
       </c>
     </row>
     <row r="14">
@@ -898,28 +816,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3545820410.669748</v>
+        <v>2666064241.095897</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1573241614657412</v>
+        <v>0.1632286530960974</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03004982989733296</v>
+        <v>0.03843954409037671</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>139</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1772910200.263857</v>
       </c>
     </row>
     <row r="15">
@@ -932,28 +844,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1804032787.224345</v>
+        <v>1831069834.599572</v>
       </c>
       <c r="F15" t="n">
-        <v>0.09058720181045378</v>
+        <v>0.1060268819692021</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04311954070623956</v>
+        <v>0.0479178326182056</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>902016548.0607142</v>
       </c>
     </row>
     <row r="16">
@@ -966,28 +872,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2158025321.110292</v>
+        <v>2259966522.98419</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1018882008884299</v>
+        <v>0.09480416200074053</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04402516495879497</v>
+        <v>0.03456024679133755</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>90</v>
-      </c>
-      <c r="J16" t="n">
-        <v>1079012721.942893</v>
       </c>
     </row>
     <row r="17">
@@ -1000,28 +900,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>3226593398.255841</v>
+        <v>4098843169.873563</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1725847076320811</v>
+        <v>0.1492810272450609</v>
       </c>
       <c r="G17" t="n">
-        <v>0.03725539014035142</v>
+        <v>0.05253926275239833</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>126</v>
-      </c>
-      <c r="J17" t="n">
-        <v>1613296771.962903</v>
       </c>
     </row>
     <row r="18">
@@ -1034,28 +928,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3237593060.482062</v>
+        <v>2893315823.427987</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1142253433840011</v>
+        <v>0.1364285679523086</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02695154026226911</v>
+        <v>0.02999852158415758</v>
       </c>
       <c r="H18" t="b">
-        <v>0</v>
-      </c>
-      <c r="I18" t="n">
-        <v>141</v>
-      </c>
-      <c r="J18" t="n">
-        <v>1618796543.275365</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19">
@@ -1068,28 +956,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1085089379.444623</v>
+        <v>1026996870.98456</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1401368934740728</v>
+        <v>0.1241897890884792</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02336625427927236</v>
+        <v>0.02583820078156951</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>542544739.6682398</v>
       </c>
     </row>
     <row r="20">
@@ -1102,28 +984,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2196131925.185696</v>
+        <v>2363989170.357337</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1172959689952567</v>
+        <v>0.1353485114363914</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02563860717935757</v>
+        <v>0.02712777983740573</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>60</v>
-      </c>
-      <c r="J20" t="n">
-        <v>1098065968.049644</v>
       </c>
     </row>
     <row r="21">
@@ -1136,28 +1012,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2091464549.023945</v>
+        <v>2400259519.806149</v>
       </c>
       <c r="F21" t="n">
-        <v>0.08401456283118457</v>
+        <v>0.08947762894606306</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03277933035908371</v>
+        <v>0.03774111656002216</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>34</v>
-      </c>
-      <c r="J21" t="n">
-        <v>1045732301.732399</v>
       </c>
     </row>
     <row r="22">
@@ -1170,28 +1040,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3743741836.371685</v>
+        <v>2932568473.697647</v>
       </c>
       <c r="F22" t="n">
-        <v>0.09171167490890947</v>
+        <v>0.1183580981246472</v>
       </c>
       <c r="G22" t="n">
-        <v>0.0568842398956422</v>
+        <v>0.03472846443457776</v>
       </c>
       <c r="H22" t="b">
-        <v>1</v>
-      </c>
-      <c r="I22" t="n">
-        <v>119</v>
-      </c>
-      <c r="J22" t="n">
-        <v>1871870935.197937</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -1210,22 +1074,16 @@
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1388960964.132626</v>
+        <v>1415963132.795595</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1263682489711808</v>
+        <v>0.124019209301753</v>
       </c>
       <c r="G23" t="n">
-        <v>0.0536363932871183</v>
+        <v>0.04391788523803322</v>
       </c>
       <c r="H23" t="b">
-        <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>694480486.7243917</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24">
@@ -1238,28 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3760664521.517899</v>
+        <v>3585120338.090177</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1176346565641126</v>
+        <v>0.09891977590215978</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03693926164572912</v>
+        <v>0.02379261480170609</v>
       </c>
       <c r="H24" t="b">
         <v>1</v>
-      </c>
-      <c r="I24" t="n">
-        <v>126</v>
-      </c>
-      <c r="J24" t="n">
-        <v>1880332244.8605</v>
       </c>
     </row>
     <row r="25">
@@ -1272,28 +1124,22 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1073419353.553509</v>
+        <v>1407785417.365595</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1087272643844193</v>
+        <v>0.1150596011530159</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02230264068566605</v>
+        <v>0.02673289579980043</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>536709723.882055</v>
       </c>
     </row>
     <row r="26">
@@ -1306,28 +1152,22 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1379185631.992051</v>
+        <v>941056373.5839801</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1044545875696514</v>
+        <v>0.0966689548030034</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03295613447052456</v>
+        <v>0.03830842162603859</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>689592880.8877556</v>
       </c>
     </row>
     <row r="27">
@@ -1340,28 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>4646362380.515312</v>
+        <v>3878988873.700975</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1169544890893948</v>
+        <v>0.1290068366201962</v>
       </c>
       <c r="G27" t="n">
-        <v>0.01777446346151914</v>
+        <v>0.02556950808806815</v>
       </c>
       <c r="H27" t="b">
         <v>0</v>
-      </c>
-      <c r="I27" t="n">
-        <v>102</v>
-      </c>
-      <c r="J27" t="n">
-        <v>2323181168.308824</v>
       </c>
     </row>
     <row r="28">
@@ -1374,28 +1208,22 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3594281375.405893</v>
+        <v>3516403351.701369</v>
       </c>
       <c r="F28" t="n">
-        <v>0.112124139054234</v>
+        <v>0.1508844656726856</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04648415353611207</v>
+        <v>0.04410745705422053</v>
       </c>
       <c r="H28" t="b">
-        <v>1</v>
-      </c>
-      <c r="I28" t="n">
-        <v>138</v>
-      </c>
-      <c r="J28" t="n">
-        <v>1797140750.516009</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -1408,28 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5517449331.384351</v>
+        <v>4643070693.406498</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1336529343626189</v>
+        <v>0.1201555249826164</v>
       </c>
       <c r="G29" t="n">
-        <v>0.04436693023194811</v>
+        <v>0.04327606520815821</v>
       </c>
       <c r="H29" t="b">
-        <v>1</v>
-      </c>
-      <c r="I29" t="n">
-        <v>190</v>
-      </c>
-      <c r="J29" t="n">
-        <v>2758724577.422109</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -1442,28 +1264,22 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1906857740.692267</v>
+        <v>1519728491.015283</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1336564873688178</v>
+        <v>0.1183754312638125</v>
       </c>
       <c r="G30" t="n">
-        <v>0.02629884699663288</v>
+        <v>0.03066881969810512</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>953428897.2146444</v>
       </c>
     </row>
     <row r="31">
@@ -1476,28 +1292,22 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1025404180.844475</v>
+        <v>1364340513.584086</v>
       </c>
       <c r="F31" t="n">
-        <v>0.0992290076051385</v>
+        <v>0.09885666137476282</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04622070617179435</v>
+        <v>0.04815779431509695</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>512702083.0050095</v>
       </c>
     </row>
     <row r="32">
@@ -1516,22 +1326,16 @@
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1738032887.682933</v>
+        <v>1520515428.794409</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1185173176702024</v>
+        <v>0.09786130399112083</v>
       </c>
       <c r="G32" t="n">
-        <v>0.0294652506580505</v>
+        <v>0.03474734143468004</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>869016561.5189793</v>
       </c>
     </row>
     <row r="33">
@@ -1544,28 +1348,22 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2844874799.598272</v>
+        <v>2820259325.651624</v>
       </c>
       <c r="F33" t="n">
-        <v>0.175422209675338</v>
+        <v>0.1714020445751509</v>
       </c>
       <c r="G33" t="n">
-        <v>0.05822731859343432</v>
+        <v>0.04021808146786764</v>
       </c>
       <c r="H33" t="b">
-        <v>1</v>
-      </c>
-      <c r="I33" t="n">
-        <v>132</v>
-      </c>
-      <c r="J33" t="n">
-        <v>1422437408.639513</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -1578,28 +1376,22 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1110598830.632977</v>
+        <v>1518268867.690754</v>
       </c>
       <c r="F34" t="n">
-        <v>0.07953254200054564</v>
+        <v>0.1167081495437505</v>
       </c>
       <c r="G34" t="n">
-        <v>0.01905906158022101</v>
+        <v>0.02761898672602095</v>
       </c>
       <c r="H34" t="b">
-        <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>555299435.0527483</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35">
@@ -1612,28 +1404,22 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1293230426.366574</v>
+        <v>1242247188.841986</v>
       </c>
       <c r="F35" t="n">
-        <v>0.08397872719618683</v>
+        <v>0.08688255116070824</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03398816261586354</v>
+        <v>0.03336459226686049</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>646615167.5003271</v>
       </c>
     </row>
     <row r="36">
@@ -1646,28 +1432,22 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>3052913669.815997</v>
+        <v>2065579767.949822</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1783090837611923</v>
+        <v>0.1751420978051806</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02564848896881714</v>
+        <v>0.02428971352320381</v>
       </c>
       <c r="H36" t="b">
-        <v>0</v>
-      </c>
-      <c r="I36" t="n">
-        <v>109</v>
-      </c>
-      <c r="J36" t="n">
-        <v>1526456812.616025</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37">
@@ -1686,22 +1466,16 @@
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>1949406366.199097</v>
+        <v>2625070035.606056</v>
       </c>
       <c r="F37" t="n">
-        <v>0.1073492399407346</v>
+        <v>0.08867931087509694</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03716974846755088</v>
+        <v>0.04002527768146005</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>117</v>
-      </c>
-      <c r="J37" t="n">
-        <v>974703203.4247423</v>
       </c>
     </row>
     <row r="38">
@@ -1714,28 +1488,22 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1976426652.058242</v>
+        <v>1718574761.779764</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1090807726897334</v>
+        <v>0.1187370791750885</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03334213902627005</v>
+        <v>0.03219234363619733</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>988213308.0078642</v>
       </c>
     </row>
     <row r="39">
@@ -1748,28 +1516,22 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1623102201.529523</v>
+        <v>1945735754.58668</v>
       </c>
       <c r="F39" t="n">
-        <v>0.152048169496573</v>
+        <v>0.1803662170128056</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02028490797043693</v>
+        <v>0.02116103592171766</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>811551152.523528</v>
       </c>
     </row>
     <row r="40">
@@ -1782,28 +1544,22 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1790894845.16471</v>
+        <v>1801528799.170988</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1149579721501067</v>
+        <v>0.1028516012562526</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05435290677494609</v>
+        <v>0.05806721511251789</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>895447315.9856741</v>
       </c>
     </row>
     <row r="41">
@@ -1816,28 +1572,22 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2494288952.489202</v>
+        <v>2697258150.397755</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1030821914419075</v>
+        <v>0.1450250992997663</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03415207905010199</v>
+        <v>0.04621952097996215</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>108</v>
-      </c>
-      <c r="J41" t="n">
-        <v>1247144502.080715</v>
       </c>
     </row>
     <row r="42">
@@ -1850,28 +1600,22 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3006742190.695979</v>
+        <v>3855818671.767378</v>
       </c>
       <c r="F42" t="n">
-        <v>0.09100806516485176</v>
+        <v>0.09307360678024369</v>
       </c>
       <c r="G42" t="n">
-        <v>0.04164815487352896</v>
+        <v>0.03649320027127974</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
-      </c>
-      <c r="I42" t="n">
-        <v>140</v>
-      </c>
-      <c r="J42" t="n">
-        <v>1503371056.257259</v>
       </c>
     </row>
     <row r="43">
@@ -1884,28 +1628,22 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2133632494.750969</v>
+        <v>2283504720.997956</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1318053130978784</v>
+        <v>0.1681930623453357</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02348895113643595</v>
+        <v>0.02161923636219781</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
-      </c>
-      <c r="I43" t="n">
-        <v>149</v>
-      </c>
-      <c r="J43" t="n">
-        <v>1066816332.910285</v>
       </c>
     </row>
     <row r="44">
@@ -1918,28 +1656,22 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1674458874.253347</v>
+        <v>1590935743.181994</v>
       </c>
       <c r="F44" t="n">
-        <v>0.09436740963060987</v>
+        <v>0.06208066223257729</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03445375356109474</v>
+        <v>0.03078092000100026</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>837229478.528178</v>
       </c>
     </row>
     <row r="45">
@@ -1958,22 +1690,16 @@
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1900333156.644361</v>
+        <v>1973208600.176888</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1230330195635296</v>
+        <v>0.1327225296641749</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04255069761483305</v>
+        <v>0.05330900699641939</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>950166559.1365572</v>
       </c>
     </row>
     <row r="46">
@@ -1986,28 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4174080243.552179</v>
+        <v>4339145868.669347</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1353226470700595</v>
+        <v>0.1305729887827083</v>
       </c>
       <c r="G46" t="n">
-        <v>0.03928418920380172</v>
+        <v>0.05127589973915923</v>
       </c>
       <c r="H46" t="b">
-        <v>1</v>
-      </c>
-      <c r="I46" t="n">
-        <v>153</v>
-      </c>
-      <c r="J46" t="n">
-        <v>2087040101.331413</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47">
@@ -2020,28 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4550390816.046353</v>
+        <v>3920047549.799642</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1661622006358404</v>
+        <v>0.1238305477474729</v>
       </c>
       <c r="G47" t="n">
-        <v>0.05834264404850637</v>
+        <v>0.05464238477477642</v>
       </c>
       <c r="H47" t="b">
-        <v>0</v>
-      </c>
-      <c r="I47" t="n">
-        <v>116</v>
-      </c>
-      <c r="J47" t="n">
-        <v>2275195438.343061</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -2054,28 +1768,22 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3893680993.412282</v>
+        <v>3706052483.555977</v>
       </c>
       <c r="F48" t="n">
-        <v>0.07448984744414615</v>
+        <v>0.08980119318157494</v>
       </c>
       <c r="G48" t="n">
-        <v>0.02569064196906986</v>
+        <v>0.02891082098619421</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
-      </c>
-      <c r="I48" t="n">
-        <v>142</v>
-      </c>
-      <c r="J48" t="n">
-        <v>1946840537.258972</v>
       </c>
     </row>
     <row r="49">
@@ -2094,22 +1802,16 @@
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1713031301.501868</v>
+        <v>1359076993.554112</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1695350230186768</v>
+        <v>0.1652082954088515</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03796075051546124</v>
+        <v>0.03068176103034081</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="n">
-        <v>856515649.6850934</v>
       </c>
     </row>
     <row r="50">
@@ -2122,28 +1824,22 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3581435208.376603</v>
+        <v>2882425120.490084</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1687083822690599</v>
+        <v>0.1658101019651345</v>
       </c>
       <c r="G50" t="n">
-        <v>0.03254336534770846</v>
+        <v>0.04127873510048834</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
-      </c>
-      <c r="I50" t="n">
-        <v>148</v>
-      </c>
-      <c r="J50" t="n">
-        <v>1790717622.664182</v>
       </c>
     </row>
     <row r="51">
@@ -2162,22 +1858,16 @@
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1299759327.511126</v>
+        <v>1388059400.562474</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1362922978158427</v>
+        <v>0.1678108647437249</v>
       </c>
       <c r="G51" t="n">
-        <v>0.03283337112931645</v>
+        <v>0.03392380759726035</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="n">
-        <v>649879699.1643835</v>
       </c>
     </row>
     <row r="52">
@@ -2196,22 +1886,16 @@
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>3413459916.777943</v>
+        <v>3490127824.176429</v>
       </c>
       <c r="F52" t="n">
-        <v>0.08988404912389168</v>
+        <v>0.09767386985414193</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04569488375708387</v>
+        <v>0.03735164327312931</v>
       </c>
       <c r="H52" t="b">
-        <v>0</v>
-      </c>
-      <c r="I52" t="n">
-        <v>178</v>
-      </c>
-      <c r="J52" t="n">
-        <v>1706730049.402186</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53">
@@ -2224,28 +1908,22 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2832795300.761216</v>
+        <v>2715075840.777071</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1531834226668557</v>
+        <v>0.1340357103700851</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02891152167041641</v>
+        <v>0.03380190557326825</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
-      </c>
-      <c r="I53" t="n">
-        <v>123</v>
-      </c>
-      <c r="J53" t="n">
-        <v>1416397694.407118</v>
       </c>
     </row>
     <row r="54">
@@ -2264,22 +1942,16 @@
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3883382677.401971</v>
+        <v>4028797815.523202</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1453826790906868</v>
+        <v>0.1195524569811339</v>
       </c>
       <c r="G54" t="n">
-        <v>0.05018835843625939</v>
+        <v>0.03665333640310386</v>
       </c>
       <c r="H54" t="b">
-        <v>1</v>
-      </c>
-      <c r="I54" t="n">
-        <v>139</v>
-      </c>
-      <c r="J54" t="n">
-        <v>1941691393.645113</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55">
@@ -2298,22 +1970,16 @@
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4047513450.019361</v>
+        <v>3322208147.927789</v>
       </c>
       <c r="F55" t="n">
-        <v>0.195056594106489</v>
+        <v>0.1661311705542317</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02120482525160514</v>
+        <v>0.02687418494211005</v>
       </c>
       <c r="H55" t="b">
         <v>0</v>
-      </c>
-      <c r="I55" t="n">
-        <v>114</v>
-      </c>
-      <c r="J55" t="n">
-        <v>2023756702.033448</v>
       </c>
     </row>
     <row r="56">
@@ -2332,22 +1998,16 @@
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1253519491.733365</v>
+        <v>1322220868.710211</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1057051600420608</v>
+        <v>0.1242748820756398</v>
       </c>
       <c r="G56" t="n">
-        <v>0.05211456859555127</v>
+        <v>0.057095709228962</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="n">
-        <v>626759824.6369069</v>
       </c>
     </row>
     <row r="57">
@@ -2360,28 +2020,22 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>2761229637.785019</v>
+        <v>3326996095.103788</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1574864573167188</v>
+        <v>0.1231175684227704</v>
       </c>
       <c r="G57" t="n">
-        <v>0.01862796761281037</v>
+        <v>0.02762102961642561</v>
       </c>
       <c r="H57" t="b">
-        <v>1</v>
-      </c>
-      <c r="I57" t="n">
-        <v>137</v>
-      </c>
-      <c r="J57" t="n">
-        <v>1380614803.267098</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58">
@@ -2394,28 +2048,22 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1877310076.894116</v>
+        <v>1265546435.154255</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1573135185451831</v>
+        <v>0.1714965464748354</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03128364706551894</v>
+        <v>0.0356722353007624</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="n">
-        <v>938655035.1631377</v>
       </c>
     </row>
     <row r="59">
@@ -2434,22 +2082,16 @@
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4517095127.009138</v>
+        <v>5343016570.433961</v>
       </c>
       <c r="F59" t="n">
-        <v>0.09047215485059588</v>
+        <v>0.07909168963795687</v>
       </c>
       <c r="G59" t="n">
-        <v>0.0367255199962397</v>
+        <v>0.04338953821821977</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
-      </c>
-      <c r="I59" t="n">
-        <v>119</v>
-      </c>
-      <c r="J59" t="n">
-        <v>2258547514.51205</v>
       </c>
     </row>
     <row r="60">
@@ -2468,22 +2110,16 @@
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2774608606.632863</v>
+        <v>2886869396.097863</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1313691974937126</v>
+        <v>0.1319781808711501</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02515506829628928</v>
+        <v>0.03126258775290892</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
-      </c>
-      <c r="I60" t="n">
-        <v>134</v>
-      </c>
-      <c r="J60" t="n">
-        <v>1387304350.040539</v>
       </c>
     </row>
     <row r="61">
@@ -2496,28 +2132,22 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2226241912.720534</v>
+        <v>3091905299.812826</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1646330418156431</v>
+        <v>0.116835549316494</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02772859381715959</v>
+        <v>0.02240704804726201</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
-      </c>
-      <c r="I61" t="n">
-        <v>148</v>
-      </c>
-      <c r="J61" t="n">
-        <v>1113121009.816808</v>
       </c>
     </row>
     <row r="62">
@@ -2530,28 +2160,22 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1583139930.104749</v>
+        <v>1331147391.340626</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1384490055443799</v>
+        <v>0.164452032650853</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03593417009569358</v>
+        <v>0.0470668106010107</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="n">
-        <v>791569960.619673</v>
       </c>
     </row>
     <row r="63">
@@ -2564,28 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>3637730295.225212</v>
+        <v>3462285438.739081</v>
       </c>
       <c r="F63" t="n">
-        <v>0.08575374825196862</v>
+        <v>0.10499741464247</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03571145770008306</v>
+        <v>0.04126933600892391</v>
       </c>
       <c r="H63" t="b">
         <v>0</v>
-      </c>
-      <c r="I63" t="n">
-        <v>125</v>
-      </c>
-      <c r="J63" t="n">
-        <v>1818865226.160473</v>
       </c>
     </row>
     <row r="64">
@@ -2598,28 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>5306682596.226919</v>
+        <v>3917773056.820207</v>
       </c>
       <c r="F64" t="n">
-        <v>0.170885440167472</v>
+        <v>0.1332987116576096</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02648390635445072</v>
+        <v>0.03366767680817213</v>
       </c>
       <c r="H64" t="b">
         <v>0</v>
-      </c>
-      <c r="I64" t="n">
-        <v>134</v>
-      </c>
-      <c r="J64" t="n">
-        <v>2653341425.903412</v>
       </c>
     </row>
     <row r="65">
@@ -2632,28 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4157204510.801087</v>
+        <v>3796282780.359284</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1646972616613718</v>
+        <v>0.1051677212268639</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02220779046321815</v>
+        <v>0.02840918685206834</v>
       </c>
       <c r="H65" t="b">
         <v>1</v>
-      </c>
-      <c r="I65" t="n">
-        <v>154</v>
-      </c>
-      <c r="J65" t="n">
-        <v>2078602264.621919</v>
       </c>
     </row>
     <row r="66">
@@ -2666,28 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4847180089.163653</v>
+        <v>4949973543.971803</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1103716578719742</v>
+        <v>0.1522762454699191</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03333003124400694</v>
+        <v>0.04534668721640107</v>
       </c>
       <c r="H66" t="b">
         <v>0</v>
-      </c>
-      <c r="I66" t="n">
-        <v>126</v>
-      </c>
-      <c r="J66" t="n">
-        <v>2423590063.5541</v>
       </c>
     </row>
     <row r="67">
@@ -2700,28 +2300,22 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2379089728.068987</v>
+        <v>3127546915.171914</v>
       </c>
       <c r="F67" t="n">
-        <v>0.08017423257989666</v>
+        <v>0.08778524396417564</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03816782616207778</v>
+        <v>0.03648268136413339</v>
       </c>
       <c r="H67" t="b">
-        <v>0</v>
-      </c>
-      <c r="I67" t="n">
-        <v>138</v>
-      </c>
-      <c r="J67" t="n">
-        <v>1189544934.85569</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68">
@@ -2740,22 +2334,16 @@
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>4209797674.358461</v>
+        <v>5365675151.726174</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1550491289318725</v>
+        <v>0.1206124056585974</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04888242680563026</v>
+        <v>0.04047267019906883</v>
       </c>
       <c r="H68" t="b">
-        <v>0</v>
-      </c>
-      <c r="I68" t="n">
-        <v>137</v>
-      </c>
-      <c r="J68" t="n">
-        <v>2104898845.70803</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -2768,28 +2356,22 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2416309282.559202</v>
+        <v>1659140290.995429</v>
       </c>
       <c r="F69" t="n">
-        <v>0.154905469920192</v>
+        <v>0.1403813198542007</v>
       </c>
       <c r="G69" t="n">
-        <v>0.03650274292906722</v>
+        <v>0.0526852284976809</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>1</v>
-      </c>
-      <c r="J69" t="n">
-        <v>1208154700.066406</v>
       </c>
     </row>
     <row r="70">
@@ -2802,28 +2384,22 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2919880891.86389</v>
+        <v>2313864589.856805</v>
       </c>
       <c r="F70" t="n">
-        <v>0.07899912483038271</v>
+        <v>0.1000394488645226</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03898685424140271</v>
+        <v>0.04101334837617752</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
-      </c>
-      <c r="I70" t="n">
-        <v>123</v>
-      </c>
-      <c r="J70" t="n">
-        <v>1459940417.684406</v>
       </c>
     </row>
     <row r="71">
@@ -2842,22 +2418,16 @@
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4683431177.612661</v>
+        <v>4631099892.226287</v>
       </c>
       <c r="F71" t="n">
-        <v>0.115113170540688</v>
+        <v>0.1272151991286535</v>
       </c>
       <c r="G71" t="n">
-        <v>0.0271508831018225</v>
+        <v>0.02191332271447708</v>
       </c>
       <c r="H71" t="b">
         <v>0</v>
-      </c>
-      <c r="I71" t="n">
-        <v>157</v>
-      </c>
-      <c r="J71" t="n">
-        <v>2341715670.897686</v>
       </c>
     </row>
     <row r="72">
@@ -2870,28 +2440,22 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1654355793.069218</v>
+        <v>1524207687.80092</v>
       </c>
       <c r="F72" t="n">
-        <v>0.08556663441365049</v>
+        <v>0.07095871931115309</v>
       </c>
       <c r="G72" t="n">
-        <v>0.03638646136885903</v>
+        <v>0.03978484044877634</v>
       </c>
       <c r="H72" t="b">
-        <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="n">
-        <v>827177898.6515931</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73">
@@ -2910,22 +2474,16 @@
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2849594846.357183</v>
+        <v>3592875310.754217</v>
       </c>
       <c r="F73" t="n">
-        <v>0.1067990088311263</v>
+        <v>0.1126124019841572</v>
       </c>
       <c r="G73" t="n">
-        <v>0.03924076452916652</v>
+        <v>0.041639094295967</v>
       </c>
       <c r="H73" t="b">
-        <v>1</v>
-      </c>
-      <c r="I73" t="n">
-        <v>163</v>
-      </c>
-      <c r="J73" t="n">
-        <v>1424797432.959775</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74">
@@ -2938,28 +2496,22 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3872350201.33656</v>
+        <v>3382610698.273076</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1577581205653441</v>
+        <v>0.1549089623283554</v>
       </c>
       <c r="G74" t="n">
-        <v>0.03183772070551846</v>
+        <v>0.02901726676807821</v>
       </c>
       <c r="H74" t="b">
-        <v>0</v>
-      </c>
-      <c r="I74" t="n">
-        <v>147</v>
-      </c>
-      <c r="J74" t="n">
-        <v>1936175090.687687</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75">
@@ -2972,28 +2524,22 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2092370675.619587</v>
+        <v>2280022010.570573</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1438178491526153</v>
+        <v>0.1434309474123198</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03629903478158298</v>
+        <v>0.0275321405698482</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="n">
-        <v>1046185293.321924</v>
       </c>
     </row>
     <row r="76">
@@ -3006,28 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4025667040.304987</v>
+        <v>4108997729.029701</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1175909574387769</v>
+        <v>0.1028420603362669</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02603628540949213</v>
+        <v>0.02542353514258144</v>
       </c>
       <c r="H76" t="b">
-        <v>1</v>
-      </c>
-      <c r="I76" t="n">
-        <v>106</v>
-      </c>
-      <c r="J76" t="n">
-        <v>2012833505.938584</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77">
@@ -3040,28 +2580,22 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>2247496807.368198</v>
+        <v>1538534249.334297</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1525573243671082</v>
+        <v>0.1818830043823238</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02903338313364817</v>
+        <v>0.02149266372997722</v>
       </c>
       <c r="H77" t="b">
-        <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="n">
-        <v>1123748501.754349</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78">
@@ -3074,28 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3544932523.699239</v>
+        <v>2905426998.820277</v>
       </c>
       <c r="F78" t="n">
-        <v>0.127519322599949</v>
+        <v>0.09633470310191153</v>
       </c>
       <c r="G78" t="n">
-        <v>0.0538822109267598</v>
+        <v>0.04237238968958985</v>
       </c>
       <c r="H78" t="b">
         <v>0</v>
-      </c>
-      <c r="I78" t="n">
-        <v>150</v>
-      </c>
-      <c r="J78" t="n">
-        <v>1772466260.162467</v>
       </c>
     </row>
     <row r="79">
@@ -3108,28 +2636,22 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1779837477.890665</v>
+        <v>1793441933.559541</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1322137766634895</v>
+        <v>0.1199962930070295</v>
       </c>
       <c r="G79" t="n">
-        <v>0.02836897162730677</v>
+        <v>0.03766000268430209</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="n">
-        <v>889918822.1389301</v>
       </c>
     </row>
     <row r="80">
@@ -3148,22 +2670,16 @@
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>3701445811.978321</v>
+        <v>3886755097.926378</v>
       </c>
       <c r="F80" t="n">
-        <v>0.09735746141376751</v>
+        <v>0.1048640515826833</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03233312329252951</v>
+        <v>0.03189215658790484</v>
       </c>
       <c r="H80" t="b">
-        <v>0</v>
-      </c>
-      <c r="I80" t="n">
-        <v>94</v>
-      </c>
-      <c r="J80" t="n">
-        <v>1850722890.624247</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -3176,28 +2692,22 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4093423810.385734</v>
+        <v>4124486996.664956</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1175722624937537</v>
+        <v>0.1086078797782046</v>
       </c>
       <c r="G81" t="n">
-        <v>0.03294877304370973</v>
+        <v>0.0315267939571626</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
-      </c>
-      <c r="I81" t="n">
-        <v>99</v>
-      </c>
-      <c r="J81" t="n">
-        <v>2046711871.896019</v>
       </c>
     </row>
     <row r="82">
@@ -3210,28 +2720,22 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4735684342.425528</v>
+        <v>4500171837.301813</v>
       </c>
       <c r="F82" t="n">
-        <v>0.139313176240144</v>
+        <v>0.1811002783461686</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02327166558149737</v>
+        <v>0.01952292754537966</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
-      </c>
-      <c r="I82" t="n">
-        <v>151</v>
-      </c>
-      <c r="J82" t="n">
-        <v>2367842169.910758</v>
       </c>
     </row>
     <row r="83">
@@ -3244,28 +2748,22 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2201660552.578718</v>
+        <v>2192718211.218115</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1300430440923158</v>
+        <v>0.101886335657327</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03346272013145529</v>
+        <v>0.03024427650732869</v>
       </c>
       <c r="H83" t="b">
-        <v>0</v>
-      </c>
-      <c r="I83" t="n">
         <v>1</v>
-      </c>
-      <c r="J83" t="n">
-        <v>1100830286.734921</v>
       </c>
     </row>
     <row r="84">
@@ -3278,28 +2776,22 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1950570285.165283</v>
+        <v>2127367078.742454</v>
       </c>
       <c r="F84" t="n">
-        <v>0.09408159693296782</v>
+        <v>0.07647894773474756</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03731729471134369</v>
+        <v>0.04661228920091999</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>6</v>
-      </c>
-      <c r="J84" t="n">
-        <v>975285154.8191109</v>
       </c>
     </row>
     <row r="85">
@@ -3312,28 +2804,22 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2461963989.241969</v>
+        <v>3093764669.702806</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1241660604852744</v>
+        <v>0.1243158023029613</v>
       </c>
       <c r="G85" t="n">
-        <v>0.03546822852846081</v>
+        <v>0.04964277906755096</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
-      </c>
-      <c r="I85" t="n">
-        <v>163</v>
-      </c>
-      <c r="J85" t="n">
-        <v>1230981995.37025</v>
       </c>
     </row>
     <row r="86">
@@ -3346,28 +2832,22 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2043872080.910006</v>
+        <v>2653834068.882485</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1239780375138528</v>
+        <v>0.1570248763797821</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02563619041185903</v>
+        <v>0.01835538660892826</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
-      </c>
-      <c r="I86" t="n">
-        <v>55</v>
-      </c>
-      <c r="J86" t="n">
-        <v>1021936074.203994</v>
       </c>
     </row>
     <row r="87">
@@ -3380,28 +2860,22 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1183506921.08059</v>
+        <v>1444866036.992972</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1716689367428859</v>
+        <v>0.1767680942350046</v>
       </c>
       <c r="G87" t="n">
-        <v>0.0419558072150395</v>
+        <v>0.03714997215056472</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="n">
-        <v>591753511.9187865</v>
       </c>
     </row>
     <row r="88">
@@ -3414,28 +2888,22 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3205364554.076663</v>
+        <v>3222768940.862999</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1151167479813992</v>
+        <v>0.127870773371468</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03285241127472561</v>
+        <v>0.03760908585836988</v>
       </c>
       <c r="H88" t="b">
-        <v>1</v>
-      </c>
-      <c r="I88" t="n">
-        <v>170</v>
-      </c>
-      <c r="J88" t="n">
-        <v>1602682327.798537</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89">
@@ -3448,28 +2916,22 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2663306525.065145</v>
+        <v>3084679641.779201</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1580811997375348</v>
+        <v>0.1167149717776106</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03033374167173374</v>
+        <v>0.04012299470032409</v>
       </c>
       <c r="H89" t="b">
         <v>1</v>
-      </c>
-      <c r="I89" t="n">
-        <v>144</v>
-      </c>
-      <c r="J89" t="n">
-        <v>1331653325.355042</v>
       </c>
     </row>
     <row r="90">
@@ -3482,28 +2944,22 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1728055565.879856</v>
+        <v>2051596075.961304</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1381987961382634</v>
+        <v>0.09843408708120364</v>
       </c>
       <c r="G90" t="n">
-        <v>0.05366426393800155</v>
+        <v>0.0523819630125181</v>
       </c>
       <c r="H90" t="b">
-        <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="n">
-        <v>864027803.4297494</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91">
@@ -3522,22 +2978,16 @@
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1928191394.887876</v>
+        <v>1426146772.442107</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1311953412530588</v>
+        <v>0.1815135006462799</v>
       </c>
       <c r="G91" t="n">
-        <v>0.03752915426900792</v>
+        <v>0.03998706053065014</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="n">
-        <v>964095679.3274609</v>
       </c>
     </row>
     <row r="92">
@@ -3550,28 +3000,22 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2309563740.510192</v>
+        <v>2264409544.686249</v>
       </c>
       <c r="F92" t="n">
-        <v>0.0868826583855713</v>
+        <v>0.06984523335606235</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04029390400427911</v>
+        <v>0.03259948182207552</v>
       </c>
       <c r="H92" t="b">
-        <v>0</v>
-      </c>
-      <c r="I92" t="n">
-        <v>121</v>
-      </c>
-      <c r="J92" t="n">
-        <v>1154781839.882466</v>
+        <v>1</v>
       </c>
     </row>
     <row r="93">
@@ -3584,28 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4296176474.199428</v>
+        <v>3310674461.01945</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1334989450470428</v>
+        <v>0.08727862733411411</v>
       </c>
       <c r="G93" t="n">
-        <v>0.05102168127834597</v>
+        <v>0.05257631453678509</v>
       </c>
       <c r="H93" t="b">
         <v>0</v>
-      </c>
-      <c r="I93" t="n">
-        <v>132</v>
-      </c>
-      <c r="J93" t="n">
-        <v>2148088218.598404</v>
       </c>
     </row>
     <row r="94">
@@ -3618,28 +3056,22 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1811979315.772499</v>
+        <v>1531650296.976037</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1364224343242962</v>
+        <v>0.105354863036257</v>
       </c>
       <c r="G94" t="n">
-        <v>0.0338249926568183</v>
+        <v>0.03777825717674935</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>2</v>
-      </c>
-      <c r="J94" t="n">
-        <v>905989631.7538366</v>
       </c>
     </row>
     <row r="95">
@@ -3658,22 +3090,16 @@
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2428759723.187738</v>
+        <v>2627932671.806169</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1030873481805037</v>
+        <v>0.09494184130402732</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04773473600823972</v>
+        <v>0.04994721626769634</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
-      </c>
-      <c r="I95" t="n">
-        <v>104</v>
-      </c>
-      <c r="J95" t="n">
-        <v>1214379902.874772</v>
       </c>
     </row>
     <row r="96">
@@ -3686,28 +3112,22 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1745268797.133766</v>
+        <v>1452564569.409765</v>
       </c>
       <c r="F96" t="n">
-        <v>0.09792245665755482</v>
+        <v>0.1023248433299948</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03098512829779847</v>
+        <v>0.03127290625759449</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="n">
-        <v>872634412.7732289</v>
       </c>
     </row>
     <row r="97">
@@ -3720,28 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>3433557867.360138</v>
+        <v>4946970926.723192</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1457995219215013</v>
+        <v>0.1234545672460586</v>
       </c>
       <c r="G97" t="n">
-        <v>0.01993578046830034</v>
+        <v>0.02711196122729565</v>
       </c>
       <c r="H97" t="b">
-        <v>1</v>
-      </c>
-      <c r="I97" t="n">
-        <v>138</v>
-      </c>
-      <c r="J97" t="n">
-        <v>1716778944.518292</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98">
@@ -3754,28 +3168,22 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3011908600.550961</v>
+        <v>2390148651.896276</v>
       </c>
       <c r="F98" t="n">
-        <v>0.09261335477399797</v>
+        <v>0.08988443529597347</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02272076007721142</v>
+        <v>0.0219207036266001</v>
       </c>
       <c r="H98" t="b">
-        <v>1</v>
-      </c>
-      <c r="I98" t="n">
-        <v>117</v>
-      </c>
-      <c r="J98" t="n">
-        <v>1505954285.78725</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99">
@@ -3788,28 +3196,22 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>3326723158.270247</v>
+        <v>3216107953.660108</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1131674019914215</v>
+        <v>0.1359272723660514</v>
       </c>
       <c r="G99" t="n">
-        <v>0.03186931978419719</v>
+        <v>0.0318542974312172</v>
       </c>
       <c r="H99" t="b">
-        <v>1</v>
-      </c>
-      <c r="I99" t="n">
-        <v>134</v>
-      </c>
-      <c r="J99" t="n">
-        <v>1663361588.822954</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100">
@@ -3822,28 +3224,22 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4419634350.438961</v>
+        <v>4341902793.99291</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1470741196751092</v>
+        <v>0.1147879910460145</v>
       </c>
       <c r="G100" t="n">
-        <v>0.01815495110981268</v>
+        <v>0.02341838856193811</v>
       </c>
       <c r="H100" t="b">
-        <v>1</v>
-      </c>
-      <c r="I100" t="n">
-        <v>133</v>
-      </c>
-      <c r="J100" t="n">
-        <v>2209817279.398876</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101">
@@ -3856,28 +3252,22 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3231693942.485568</v>
+        <v>2523272227.296141</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1618610381833734</v>
+        <v>0.1993527351605332</v>
       </c>
       <c r="G101" t="n">
-        <v>0.03954235889395</v>
+        <v>0.05337874991745769</v>
       </c>
       <c r="H101" t="b">
-        <v>1</v>
-      </c>
-      <c r="I101" t="n">
-        <v>175</v>
-      </c>
-      <c r="J101" t="n">
-        <v>1615847090.940938</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_431.xlsx
+++ b/output/fit_clients/fit_round_431.xlsx
@@ -486,13 +486,13 @@
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2409093717.442879</v>
+        <v>1630157875.260725</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1056397435005978</v>
+        <v>0.07753976503993878</v>
       </c>
       <c r="G2" t="n">
-        <v>0.04271059482114497</v>
+        <v>0.04247468255329939</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
@@ -508,19 +508,19 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>1917702377.464481</v>
+        <v>2303480788.220712</v>
       </c>
       <c r="F3" t="n">
-        <v>0.112415280305523</v>
+        <v>0.1496137845286966</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03525558419223031</v>
+        <v>0.04831683943608121</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
@@ -542,13 +542,13 @@
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>3713044830.105321</v>
+        <v>3158618156.263136</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1097905481554396</v>
+        <v>0.1540289416825189</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03219273615703602</v>
+        <v>0.03120248856668215</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
@@ -564,22 +564,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3679132607.875594</v>
+        <v>3858524317.351564</v>
       </c>
       <c r="F5" t="n">
-        <v>0.07788510186810327</v>
+        <v>0.07505898863788001</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04898787623207104</v>
+        <v>0.04932244285133484</v>
       </c>
       <c r="H5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2234027080.858612</v>
+        <v>1798759487.337777</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1405057358232706</v>
+        <v>0.1235801046784551</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04542726928054341</v>
+        <v>0.05066509529407475</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
@@ -626,13 +626,13 @@
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2507713597.110297</v>
+        <v>3053525245.746488</v>
       </c>
       <c r="F7" t="n">
-        <v>0.09672108569705633</v>
+        <v>0.07094312830188997</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03075485210990646</v>
+        <v>0.04657888676434566</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
@@ -648,19 +648,19 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>2442354503.781273</v>
+        <v>3362558496.818436</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1988278148824999</v>
+        <v>0.145479025947779</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0328945990674731</v>
+        <v>0.0264447636660959</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
@@ -676,19 +676,19 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1914416827.211815</v>
+        <v>1891959056.572267</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1295842643409312</v>
+        <v>0.1727384439297343</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02510831078186535</v>
+        <v>0.03606618508212488</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
@@ -710,16 +710,16 @@
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5920003816.299887</v>
+        <v>5463794741.3638</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1871493234761543</v>
+        <v>0.1653576951975443</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04903217977615976</v>
+        <v>0.03667487735858847</v>
       </c>
       <c r="H10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -732,19 +732,19 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>2580470928.67329</v>
+        <v>2944949286.610848</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1697464763655327</v>
+        <v>0.1726966430663887</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04213915979064727</v>
+        <v>0.03426869020795584</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
@@ -760,22 +760,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2222386969.71745</v>
+        <v>2245713155.863818</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1701830185047475</v>
+        <v>0.1875154299553124</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04429140144951763</v>
+        <v>0.03413556637754753</v>
       </c>
       <c r="H12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -788,22 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4733771123.606297</v>
+        <v>4073794139.315817</v>
       </c>
       <c r="F13" t="n">
-        <v>0.07230282741724813</v>
+        <v>0.06219639291550653</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02065725643224152</v>
+        <v>0.02927377096142745</v>
       </c>
       <c r="H13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -816,19 +816,19 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2666064241.095897</v>
+        <v>2787087448.954077</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1632286530960974</v>
+        <v>0.1281112278670518</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03843954409037671</v>
+        <v>0.02792463896637677</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
@@ -844,19 +844,19 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1831069834.599572</v>
+        <v>1444265972.690218</v>
       </c>
       <c r="F15" t="n">
-        <v>0.1060268819692021</v>
+        <v>0.09107636160460134</v>
       </c>
       <c r="G15" t="n">
-        <v>0.0479178326182056</v>
+        <v>0.04529693793875351</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
@@ -872,19 +872,19 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2259966522.98419</v>
+        <v>1830265429.341398</v>
       </c>
       <c r="F16" t="n">
-        <v>0.09480416200074053</v>
+        <v>0.07973779062331486</v>
       </c>
       <c r="G16" t="n">
-        <v>0.03456024679133755</v>
+        <v>0.0358965469889647</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
@@ -900,19 +900,19 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4098843169.873563</v>
+        <v>5163595863.451978</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1492810272450609</v>
+        <v>0.1589422308265578</v>
       </c>
       <c r="G17" t="n">
-        <v>0.05253926275239833</v>
+        <v>0.03688425344862587</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
@@ -928,22 +928,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>2893315823.427987</v>
+        <v>2429931805.192863</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1364285679523086</v>
+        <v>0.134616005824455</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02999852158415758</v>
+        <v>0.029896191975969</v>
       </c>
       <c r="H18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -956,19 +956,19 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1026996870.98456</v>
+        <v>910080974.300953</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1241897890884792</v>
+        <v>0.1194367317000593</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02583820078156951</v>
+        <v>0.01856982701189594</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
@@ -984,19 +984,19 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2363989170.357337</v>
+        <v>2489628807.324718</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1353485114363914</v>
+        <v>0.1369740977784782</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02712777983740573</v>
+        <v>0.02199319193268123</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
@@ -1012,19 +1012,19 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2400259519.806149</v>
+        <v>2600857034.047647</v>
       </c>
       <c r="F21" t="n">
-        <v>0.08947762894606306</v>
+        <v>0.07665641282230559</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03774111656002216</v>
+        <v>0.034646916385235</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
@@ -1040,19 +1040,19 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>2932568473.697647</v>
+        <v>2958088055.286263</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1183580981246472</v>
+        <v>0.1208011233005353</v>
       </c>
       <c r="G22" t="n">
-        <v>0.03472846443457776</v>
+        <v>0.04565539429396533</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
@@ -1068,22 +1068,22 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1415963132.795595</v>
+        <v>1432284769.920149</v>
       </c>
       <c r="F23" t="n">
-        <v>0.124019209301753</v>
+        <v>0.1142715693013312</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04391788523803322</v>
+        <v>0.03728426188619269</v>
       </c>
       <c r="H23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -1102,13 +1102,13 @@
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3585120338.090177</v>
+        <v>2613949270.007826</v>
       </c>
       <c r="F24" t="n">
-        <v>0.09891977590215978</v>
+        <v>0.1441825423417468</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02379261480170609</v>
+        <v>0.03361726898978423</v>
       </c>
       <c r="H24" t="b">
         <v>1</v>
@@ -1130,13 +1130,13 @@
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1407785417.365595</v>
+        <v>1206905032.808494</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1150596011530159</v>
+        <v>0.1002002938752317</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02673289579980043</v>
+        <v>0.02834297533264196</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
@@ -1152,19 +1152,19 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>941056373.5839801</v>
+        <v>1308909011.848408</v>
       </c>
       <c r="F26" t="n">
-        <v>0.0966689548030034</v>
+        <v>0.1138340169586044</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03830842162603859</v>
+        <v>0.02618060163405942</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
@@ -1186,16 +1186,16 @@
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3878988873.700975</v>
+        <v>3294297643.772345</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1290068366201962</v>
+        <v>0.09917664612076103</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02556950808806815</v>
+        <v>0.01900732555198034</v>
       </c>
       <c r="H27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -1208,19 +1208,19 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3516403351.701369</v>
+        <v>3301769831.547713</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1508844656726856</v>
+        <v>0.1378842338336198</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04410745705422053</v>
+        <v>0.04002316830668656</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
@@ -1236,22 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4643070693.406498</v>
+        <v>4735408027.85691</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1201555249826164</v>
+        <v>0.1054154775202591</v>
       </c>
       <c r="G29" t="n">
-        <v>0.04327606520815821</v>
+        <v>0.02898635643038538</v>
       </c>
       <c r="H29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -1264,19 +1264,19 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1519728491.015283</v>
+        <v>2063355695.314677</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1183754312638125</v>
+        <v>0.1185057135632939</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03066881969810512</v>
+        <v>0.02436372328844227</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
@@ -1292,19 +1292,19 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1364340513.584086</v>
+        <v>1133907022.059586</v>
       </c>
       <c r="F31" t="n">
-        <v>0.09885666137476282</v>
+        <v>0.08016896635694491</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04815779431509695</v>
+        <v>0.05222823380038556</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
@@ -1320,19 +1320,19 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1520515428.794409</v>
+        <v>1510932529.379942</v>
       </c>
       <c r="F32" t="n">
-        <v>0.09786130399112083</v>
+        <v>0.09046568857988534</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03474734143468004</v>
+        <v>0.02393757070410586</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
@@ -1348,19 +1348,19 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2820259325.651624</v>
+        <v>3087734545.212675</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1714020445751509</v>
+        <v>0.1944498163136986</v>
       </c>
       <c r="G33" t="n">
-        <v>0.04021808146786764</v>
+        <v>0.04633996727661795</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
@@ -1376,22 +1376,22 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1518268867.690754</v>
+        <v>1361303895.579114</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1167081495437505</v>
+        <v>0.1121151381475361</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02761898672602095</v>
+        <v>0.02053234490596054</v>
       </c>
       <c r="H34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -1404,19 +1404,19 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1242247188.841986</v>
+        <v>1272285483.779045</v>
       </c>
       <c r="F35" t="n">
-        <v>0.08688255116070824</v>
+        <v>0.09488562393219523</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03336459226686049</v>
+        <v>0.0332426159539238</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
@@ -1432,22 +1432,22 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2065579767.949822</v>
+        <v>2471021605.860991</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1751420978051806</v>
+        <v>0.1444333979390527</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02428971352320381</v>
+        <v>0.02412311183144641</v>
       </c>
       <c r="H36" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -1460,19 +1460,19 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2625070035.606056</v>
+        <v>2060786716.097385</v>
       </c>
       <c r="F37" t="n">
-        <v>0.08867931087509694</v>
+        <v>0.1026544121573456</v>
       </c>
       <c r="G37" t="n">
-        <v>0.04002527768146005</v>
+        <v>0.03651237199405126</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
@@ -1488,19 +1488,19 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1718574761.779764</v>
+        <v>1569056203.228009</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1187370791750885</v>
+        <v>0.07773674175959101</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03219234363619733</v>
+        <v>0.02731629827115346</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
@@ -1516,19 +1516,19 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1945735754.58668</v>
+        <v>1680776981.27169</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1803662170128056</v>
+        <v>0.1297195656972766</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02116103592171766</v>
+        <v>0.03096891674000665</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
@@ -1544,19 +1544,19 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1801528799.170988</v>
+        <v>1310373865.667786</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1028516012562526</v>
+        <v>0.1627680741247366</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05806721511251789</v>
+        <v>0.04663305488376241</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
@@ -1572,19 +1572,19 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2697258150.397755</v>
+        <v>2176926254.488764</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1450250992997663</v>
+        <v>0.1596134921364114</v>
       </c>
       <c r="G41" t="n">
-        <v>0.04621952097996215</v>
+        <v>0.03446494355347181</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
@@ -1600,19 +1600,19 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3855818671.767378</v>
+        <v>3691516897.816068</v>
       </c>
       <c r="F42" t="n">
-        <v>0.09307360678024369</v>
+        <v>0.08364136480598387</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03649320027127974</v>
+        <v>0.03362058560765353</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
@@ -1628,19 +1628,19 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2283504720.997956</v>
+        <v>2264854577.836136</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1681930623453357</v>
+        <v>0.1396915996706709</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02161923636219781</v>
+        <v>0.01709766524582011</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
@@ -1662,13 +1662,13 @@
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1590935743.181994</v>
+        <v>2135170510.045016</v>
       </c>
       <c r="F44" t="n">
-        <v>0.06208066223257729</v>
+        <v>0.08819951369180858</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03078092000100026</v>
+        <v>0.02304025048678621</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
@@ -1684,19 +1684,19 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1973208600.176888</v>
+        <v>1767441865.660711</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1327225296641749</v>
+        <v>0.1247817591658869</v>
       </c>
       <c r="G45" t="n">
-        <v>0.05330900699641939</v>
+        <v>0.04780006570205992</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
@@ -1712,22 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4339145868.669347</v>
+        <v>5628053637.90591</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1305729887827083</v>
+        <v>0.1672700361145282</v>
       </c>
       <c r="G46" t="n">
-        <v>0.05127589973915923</v>
+        <v>0.05105720982600304</v>
       </c>
       <c r="H46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -1740,19 +1740,19 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3920047549.799642</v>
+        <v>3708456723.781943</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1238305477474729</v>
+        <v>0.1868352017488226</v>
       </c>
       <c r="G47" t="n">
-        <v>0.05464238477477642</v>
+        <v>0.0521624967836543</v>
       </c>
       <c r="H47" t="b">
         <v>1</v>
@@ -1768,19 +1768,19 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3706052483.555977</v>
+        <v>4257962913.261467</v>
       </c>
       <c r="F48" t="n">
-        <v>0.08980119318157494</v>
+        <v>0.09820660948224602</v>
       </c>
       <c r="G48" t="n">
-        <v>0.02891082098619421</v>
+        <v>0.03763196662941936</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
@@ -1796,19 +1796,19 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1359076993.554112</v>
+        <v>1199275515.797049</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1652082954088515</v>
+        <v>0.1522613674266388</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03068176103034081</v>
+        <v>0.03111913532407808</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
@@ -1830,13 +1830,13 @@
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>2882425120.490084</v>
+        <v>4126374295.601269</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1658101019651345</v>
+        <v>0.1260291026977421</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04127873510048834</v>
+        <v>0.04954052666325272</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
@@ -1852,19 +1852,19 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1388059400.562474</v>
+        <v>988629126.7215794</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1678108647437249</v>
+        <v>0.1808593773927588</v>
       </c>
       <c r="G51" t="n">
-        <v>0.03392380759726035</v>
+        <v>0.05166359743360996</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
@@ -1880,22 +1880,22 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>3490127824.176429</v>
+        <v>3333499157.742756</v>
       </c>
       <c r="F52" t="n">
-        <v>0.09767386985414193</v>
+        <v>0.1194968107332896</v>
       </c>
       <c r="G52" t="n">
-        <v>0.03735164327312931</v>
+        <v>0.0429853447861212</v>
       </c>
       <c r="H52" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53">
@@ -1908,19 +1908,19 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2715075840.777071</v>
+        <v>3675186031.264035</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1340357103700851</v>
+        <v>0.1670145200405765</v>
       </c>
       <c r="G53" t="n">
-        <v>0.03380190557326825</v>
+        <v>0.03036922093280116</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
@@ -1936,22 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4028797815.523202</v>
+        <v>4454884366.495614</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1195524569811339</v>
+        <v>0.1022142690623928</v>
       </c>
       <c r="G54" t="n">
-        <v>0.03665333640310386</v>
+        <v>0.03232593055525732</v>
       </c>
       <c r="H54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -1970,16 +1970,16 @@
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3322208147.927789</v>
+        <v>3673674852.69724</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1661311705542317</v>
+        <v>0.1471948627119953</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02687418494211005</v>
+        <v>0.02877637217004077</v>
       </c>
       <c r="H55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -1998,13 +1998,13 @@
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1322220868.710211</v>
+        <v>1684226227.583177</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1242748820756398</v>
+        <v>0.1382234394571673</v>
       </c>
       <c r="G56" t="n">
-        <v>0.057095709228962</v>
+        <v>0.03816933324756169</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
@@ -2020,19 +2020,19 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3326996095.103788</v>
+        <v>4082750536.49196</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1231175684227704</v>
+        <v>0.1567631543280311</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02762102961642561</v>
+        <v>0.02378653615200074</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
@@ -2054,13 +2054,13 @@
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1265546435.154255</v>
+        <v>1761436617.74348</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1714965464748354</v>
+        <v>0.1349621612413581</v>
       </c>
       <c r="G58" t="n">
-        <v>0.0356722353007624</v>
+        <v>0.03874405407610663</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
@@ -2076,19 +2076,19 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>5343016570.433961</v>
+        <v>4966770293.779531</v>
       </c>
       <c r="F59" t="n">
-        <v>0.07909168963795687</v>
+        <v>0.08245549870061086</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04338953821821977</v>
+        <v>0.03968311215045551</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
@@ -2110,13 +2110,13 @@
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2886869396.097863</v>
+        <v>3419743944.249416</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1319781808711501</v>
+        <v>0.1635712161705419</v>
       </c>
       <c r="G60" t="n">
-        <v>0.03126258775290892</v>
+        <v>0.0264369389385324</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
@@ -2132,19 +2132,19 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>3091905299.812826</v>
+        <v>2323740178.450678</v>
       </c>
       <c r="F61" t="n">
-        <v>0.116835549316494</v>
+        <v>0.1676123878421075</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02240704804726201</v>
+        <v>0.02996158579902976</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
@@ -2160,19 +2160,19 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1331147391.340626</v>
+        <v>1481558573.002797</v>
       </c>
       <c r="F62" t="n">
-        <v>0.164452032650853</v>
+        <v>0.1767671913771659</v>
       </c>
       <c r="G62" t="n">
-        <v>0.0470668106010107</v>
+        <v>0.03178734079105635</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
@@ -2188,22 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>3462285438.739081</v>
+        <v>3727087556.991357</v>
       </c>
       <c r="F63" t="n">
-        <v>0.10499741464247</v>
+        <v>0.1078500612310256</v>
       </c>
       <c r="G63" t="n">
-        <v>0.04126933600892391</v>
+        <v>0.04675670173836621</v>
       </c>
       <c r="H63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -2216,22 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>3917773056.820207</v>
+        <v>5304642394.783668</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1332987116576096</v>
+        <v>0.1262658960667458</v>
       </c>
       <c r="G64" t="n">
-        <v>0.03366767680817213</v>
+        <v>0.0256542409434989</v>
       </c>
       <c r="H64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -2244,19 +2244,19 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>3796282780.359284</v>
+        <v>5721801887.431403</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1051677212268639</v>
+        <v>0.1387789530750334</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02840918685206834</v>
+        <v>0.02728554141687537</v>
       </c>
       <c r="H65" t="b">
         <v>1</v>
@@ -2272,22 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4949973543.971803</v>
+        <v>4430853781.035792</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1522762454699191</v>
+        <v>0.1161827127144333</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04534668721640107</v>
+        <v>0.04978255856051599</v>
       </c>
       <c r="H66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -2306,16 +2306,16 @@
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>3127546915.171914</v>
+        <v>2610506754.059418</v>
       </c>
       <c r="F67" t="n">
-        <v>0.08778524396417564</v>
+        <v>0.08637737109050266</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03648268136413339</v>
+        <v>0.04335252757822551</v>
       </c>
       <c r="H67" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68">
@@ -2328,19 +2328,19 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5365675151.726174</v>
+        <v>4327399950.167766</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1206124056585974</v>
+        <v>0.1490670780490758</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04047267019906883</v>
+        <v>0.04752381047196134</v>
       </c>
       <c r="H68" t="b">
         <v>1</v>
@@ -2356,19 +2356,19 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1659140290.995429</v>
+        <v>1993886178.674559</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1403813198542007</v>
+        <v>0.1108518508683029</v>
       </c>
       <c r="G69" t="n">
-        <v>0.0526852284976809</v>
+        <v>0.04049532820632511</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
@@ -2390,13 +2390,13 @@
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2313864589.856805</v>
+        <v>3155247961.581971</v>
       </c>
       <c r="F70" t="n">
-        <v>0.1000394488645226</v>
+        <v>0.0905534884235471</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04101334837617752</v>
+        <v>0.03126698863938776</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
@@ -2412,22 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4631099892.226287</v>
+        <v>3550575911.721146</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1272151991286535</v>
+        <v>0.1825969118393189</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02191332271447708</v>
+        <v>0.02130742510681347</v>
       </c>
       <c r="H71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -2440,22 +2440,22 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1524207687.80092</v>
+        <v>2194874042.845275</v>
       </c>
       <c r="F72" t="n">
-        <v>0.07095871931115309</v>
+        <v>0.08199685012595505</v>
       </c>
       <c r="G72" t="n">
-        <v>0.03978484044877634</v>
+        <v>0.04805953696713473</v>
       </c>
       <c r="H72" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73">
@@ -2468,19 +2468,19 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3592875310.754217</v>
+        <v>2764844532.514569</v>
       </c>
       <c r="F73" t="n">
-        <v>0.1126124019841572</v>
+        <v>0.09683302745182965</v>
       </c>
       <c r="G73" t="n">
-        <v>0.041639094295967</v>
+        <v>0.04394895889524911</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
@@ -2496,22 +2496,22 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3382610698.273076</v>
+        <v>3984283691.387049</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1549089623283554</v>
+        <v>0.141264743825762</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02901726676807821</v>
+        <v>0.0217958974679831</v>
       </c>
       <c r="H74" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75">
@@ -2530,13 +2530,13 @@
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2280022010.570573</v>
+        <v>1732986731.628449</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1434309474123198</v>
+        <v>0.1014696972058552</v>
       </c>
       <c r="G75" t="n">
-        <v>0.0275321405698482</v>
+        <v>0.03490304513812902</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
@@ -2552,22 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4108997729.029701</v>
+        <v>4502918803.605322</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1028420603362669</v>
+        <v>0.07707710698256658</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02542353514258144</v>
+        <v>0.03121227556670503</v>
       </c>
       <c r="H76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -2586,16 +2586,16 @@
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1538534249.334297</v>
+        <v>2101116789.170768</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1818830043823238</v>
+        <v>0.1860745865752851</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02149266372997722</v>
+        <v>0.02797914555250646</v>
       </c>
       <c r="H77" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78">
@@ -2608,22 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>2905426998.820277</v>
+        <v>3004149826.490608</v>
       </c>
       <c r="F78" t="n">
-        <v>0.09633470310191153</v>
+        <v>0.1313471244164594</v>
       </c>
       <c r="G78" t="n">
-        <v>0.04237238968958985</v>
+        <v>0.05114926359273832</v>
       </c>
       <c r="H78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -2642,13 +2642,13 @@
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1793441933.559541</v>
+        <v>1525173046.975567</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1199962930070295</v>
+        <v>0.1474138876431841</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03766000268430209</v>
+        <v>0.03157241157866931</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
@@ -2670,13 +2670,13 @@
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>3886755097.926378</v>
+        <v>4453210171.642694</v>
       </c>
       <c r="F80" t="n">
-        <v>0.1048640515826833</v>
+        <v>0.07683389530511213</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03189215658790484</v>
+        <v>0.02380323466937335</v>
       </c>
       <c r="H80" t="b">
         <v>1</v>
@@ -2692,19 +2692,19 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4124486996.664956</v>
+        <v>4826113217.491923</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1086078797782046</v>
+        <v>0.1018989647530715</v>
       </c>
       <c r="G81" t="n">
-        <v>0.0315267939571626</v>
+        <v>0.03049366380196141</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
@@ -2726,13 +2726,13 @@
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4500171837.301813</v>
+        <v>3762590710.421111</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1811002783461686</v>
+        <v>0.1597855743192334</v>
       </c>
       <c r="G82" t="n">
-        <v>0.01952292754537966</v>
+        <v>0.02511970248379703</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
@@ -2748,22 +2748,22 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2192718211.218115</v>
+        <v>1809137884.760925</v>
       </c>
       <c r="F83" t="n">
-        <v>0.101886335657327</v>
+        <v>0.1205487119510481</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03024427650732869</v>
+        <v>0.02842620989968004</v>
       </c>
       <c r="H83" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84">
@@ -2776,19 +2776,19 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2127367078.742454</v>
+        <v>1744676988.203436</v>
       </c>
       <c r="F84" t="n">
-        <v>0.07647894773474756</v>
+        <v>0.1029343600607947</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04661228920091999</v>
+        <v>0.03658465642828542</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
@@ -2804,19 +2804,19 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3093764669.702806</v>
+        <v>3200227429.657174</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1243158023029613</v>
+        <v>0.1134932216957849</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04964277906755096</v>
+        <v>0.04988225491623965</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
@@ -2832,19 +2832,19 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2653834068.882485</v>
+        <v>2442188820.673453</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1570248763797821</v>
+        <v>0.166430461780668</v>
       </c>
       <c r="G86" t="n">
-        <v>0.01835538660892826</v>
+        <v>0.02287368437478644</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
@@ -2860,19 +2860,19 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1444866036.992972</v>
+        <v>1142248139.969423</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1767680942350046</v>
+        <v>0.129169544157985</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03714997215056472</v>
+        <v>0.03324452750821267</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
@@ -2888,19 +2888,19 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3222768940.862999</v>
+        <v>3289029521.433059</v>
       </c>
       <c r="F88" t="n">
-        <v>0.127870773371468</v>
+        <v>0.1194878333682721</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03760908585836988</v>
+        <v>0.03773153220758863</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
@@ -2916,22 +2916,22 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>3084679641.779201</v>
+        <v>3147917985.045163</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1167149717776106</v>
+        <v>0.1385431113751447</v>
       </c>
       <c r="G89" t="n">
-        <v>0.04012299470032409</v>
+        <v>0.03818098362231293</v>
       </c>
       <c r="H89" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90">
@@ -2944,22 +2944,22 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>2051596075.961304</v>
+        <v>1378541509.677885</v>
       </c>
       <c r="F90" t="n">
-        <v>0.09843408708120364</v>
+        <v>0.08542103052910803</v>
       </c>
       <c r="G90" t="n">
-        <v>0.0523819630125181</v>
+        <v>0.03892626684960328</v>
       </c>
       <c r="H90" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91">
@@ -2972,19 +2972,19 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1426146772.442107</v>
+        <v>2086104220.219252</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1815135006462799</v>
+        <v>0.1719585940017897</v>
       </c>
       <c r="G91" t="n">
-        <v>0.03998706053065014</v>
+        <v>0.04367096974635711</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
@@ -3000,22 +3000,22 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2264409544.686249</v>
+        <v>2016364035.232912</v>
       </c>
       <c r="F92" t="n">
-        <v>0.06984523335606235</v>
+        <v>0.09940355589191215</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03259948182207552</v>
+        <v>0.03303148811193061</v>
       </c>
       <c r="H92" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93">
@@ -3028,22 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3310674461.01945</v>
+        <v>4830213340.960352</v>
       </c>
       <c r="F93" t="n">
-        <v>0.08727862733411411</v>
+        <v>0.1219531057017949</v>
       </c>
       <c r="G93" t="n">
-        <v>0.05257631453678509</v>
+        <v>0.03558877657360082</v>
       </c>
       <c r="H93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
@@ -3056,19 +3056,19 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1531650296.976037</v>
+        <v>1801299208.674839</v>
       </c>
       <c r="F94" t="n">
-        <v>0.105354863036257</v>
+        <v>0.151916074960409</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03777825717674935</v>
+        <v>0.03244218674592263</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
@@ -3084,19 +3084,19 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2627932671.806169</v>
+        <v>2747917395.142775</v>
       </c>
       <c r="F95" t="n">
-        <v>0.09494184130402732</v>
+        <v>0.0993558956485754</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04994721626769634</v>
+        <v>0.04736196540533644</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
@@ -3112,19 +3112,19 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1452564569.409765</v>
+        <v>1822154527.605341</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1023248433299948</v>
+        <v>0.1059146453574957</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03127290625759449</v>
+        <v>0.0461028596495166</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
@@ -3146,16 +3146,16 @@
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4946970926.723192</v>
+        <v>4206588482.713981</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1234545672460586</v>
+        <v>0.1339293024195048</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02711196122729565</v>
+        <v>0.02455172568994049</v>
       </c>
       <c r="H97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
@@ -3168,19 +3168,19 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>2390148651.896276</v>
+        <v>3862817512.347351</v>
       </c>
       <c r="F98" t="n">
-        <v>0.08988443529597347</v>
+        <v>0.1022991212246078</v>
       </c>
       <c r="G98" t="n">
-        <v>0.0219207036266001</v>
+        <v>0.02783435765303939</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
@@ -3196,19 +3196,19 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>3216107953.660108</v>
+        <v>2925903617.151051</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1359272723660514</v>
+        <v>0.1129349262171977</v>
       </c>
       <c r="G99" t="n">
-        <v>0.0318542974312172</v>
+        <v>0.026387085184381</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
@@ -3230,13 +3230,13 @@
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4341902793.99291</v>
+        <v>4519580859.652855</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1147879910460145</v>
+        <v>0.109093817867368</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02341838856193811</v>
+        <v>0.01788584587701486</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
@@ -3252,19 +3252,19 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2523272227.296141</v>
+        <v>3200018477.564689</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1993527351605332</v>
+        <v>0.1463071283301607</v>
       </c>
       <c r="G101" t="n">
-        <v>0.05337874991745769</v>
+        <v>0.05590659056138555</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>

--- a/output/fit_clients/fit_round_431.xlsx
+++ b/output/fit_clients/fit_round_431.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:K101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,21 @@
           <t>isSelected</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>last_involving_round</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>oort_utility</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -480,23 +495,30 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1630157875.260725</v>
+        <v>2070419791.406473</v>
       </c>
       <c r="F2" t="n">
-        <v>0.07753976503993878</v>
+        <v>0.08286664274890713</v>
       </c>
       <c r="G2" t="n">
-        <v>0.04247468255329939</v>
+        <v>0.03405008175295794</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
       </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -508,23 +530,30 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2303480788.220712</v>
+        <v>1693781520.123024</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1496137845286966</v>
+        <v>0.1397965276728382</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04831683943608121</v>
+        <v>0.03695744807976283</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
       </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -542,17 +571,24 @@
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>3158618156.263136</v>
+        <v>5254050059.165112</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1540289416825189</v>
+        <v>0.1448424063480757</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03120248856668215</v>
+        <v>0.03223393338810249</v>
       </c>
       <c r="H4" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>218</v>
+      </c>
+      <c r="J4" t="n">
+        <v>431</v>
+      </c>
+      <c r="K4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -564,23 +600,30 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3858524317.351564</v>
+        <v>4115935503.255</v>
       </c>
       <c r="F5" t="n">
-        <v>0.07505898863788001</v>
+        <v>0.08585561275264578</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04932244285133484</v>
+        <v>0.0492435242421308</v>
       </c>
       <c r="H5" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>178</v>
+      </c>
+      <c r="J5" t="n">
+        <v>431</v>
+      </c>
+      <c r="K5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -592,23 +635,30 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>1798759487.337777</v>
+        <v>2541161561.956876</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1235801046784551</v>
+        <v>0.1234248909248942</v>
       </c>
       <c r="G6" t="n">
-        <v>0.05066509529407475</v>
+        <v>0.04239725836509767</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
       </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -620,23 +670,30 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>3053525245.746488</v>
+        <v>2810448140.594843</v>
       </c>
       <c r="F7" t="n">
-        <v>0.07094312830188997</v>
+        <v>0.07400986860853789</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04657888676434566</v>
+        <v>0.04795694054183077</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
       </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -648,22 +705,31 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3362558496.818436</v>
+        <v>2748464267.264524</v>
       </c>
       <c r="F8" t="n">
-        <v>0.145479025947779</v>
+        <v>0.2205300889717273</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0264447636660959</v>
+        <v>0.02118664941199273</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>116</v>
+      </c>
+      <c r="J8" t="n">
+        <v>430</v>
+      </c>
+      <c r="K8" t="n">
+        <v>23.91956101305217</v>
       </c>
     </row>
     <row r="9">
@@ -676,23 +742,30 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1891959056.572267</v>
+        <v>2239566675.100506</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1727384439297343</v>
+        <v>0.1650902666095731</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03606618508212488</v>
+        <v>0.03716740680929152</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
       </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -704,23 +777,30 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5463794741.3638</v>
+        <v>4610896183.662192</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1653576951975443</v>
+        <v>0.1476678722625101</v>
       </c>
       <c r="G10" t="n">
-        <v>0.03667487735858847</v>
+        <v>0.05115756279624439</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
       </c>
+      <c r="I10" t="n">
+        <v>340</v>
+      </c>
+      <c r="J10" t="n">
+        <v>431</v>
+      </c>
+      <c r="K10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -732,23 +812,30 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>2944949286.610848</v>
+        <v>2924009177.024969</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1726966430663887</v>
+        <v>0.1289457576562678</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03426869020795584</v>
+        <v>0.04108417871636531</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
       </c>
+      <c r="I11" t="n">
+        <v>177</v>
+      </c>
+      <c r="J11" t="n">
+        <v>424</v>
+      </c>
+      <c r="K11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -760,23 +847,30 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2245713155.863818</v>
+        <v>2818472529.099044</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1875154299553124</v>
+        <v>0.1247023256115091</v>
       </c>
       <c r="G12" t="n">
-        <v>0.03413556637754753</v>
+        <v>0.03353367717316946</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
       </c>
+      <c r="I12" t="n">
+        <v>3</v>
+      </c>
+      <c r="J12" t="n">
+        <v>308</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -788,23 +882,30 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4073794139.315817</v>
+        <v>3298435721.330883</v>
       </c>
       <c r="F13" t="n">
-        <v>0.06219639291550653</v>
+        <v>0.07492995423035122</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02927377096142745</v>
+        <v>0.02744051534794861</v>
       </c>
       <c r="H13" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>225</v>
+      </c>
+      <c r="J13" t="n">
+        <v>429</v>
+      </c>
+      <c r="K13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -816,23 +917,30 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2787087448.954077</v>
+        <v>3345750167.454547</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1281112278670518</v>
+        <v>0.1697724441691716</v>
       </c>
       <c r="G14" t="n">
-        <v>0.02792463896637677</v>
+        <v>0.03697805859561676</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
       </c>
+      <c r="I14" t="n">
+        <v>92</v>
+      </c>
+      <c r="J14" t="n">
+        <v>426</v>
+      </c>
+      <c r="K14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -844,23 +952,30 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1444265972.690218</v>
+        <v>1471506734.932405</v>
       </c>
       <c r="F15" t="n">
-        <v>0.09107636160460134</v>
+        <v>0.1031133999101757</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04529693793875351</v>
+        <v>0.04594322319303158</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
       </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -872,23 +987,30 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>1830265429.341398</v>
+        <v>1976352922.241817</v>
       </c>
       <c r="F16" t="n">
-        <v>0.07973779062331486</v>
+        <v>0.07143068883623574</v>
       </c>
       <c r="G16" t="n">
-        <v>0.0358965469889647</v>
+        <v>0.04989960667059427</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
       </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -900,23 +1022,30 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>5163595863.451978</v>
+        <v>3966541343.104736</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1589422308265578</v>
+        <v>0.1281830791613879</v>
       </c>
       <c r="G17" t="n">
-        <v>0.03688425344862587</v>
+        <v>0.03997695895829412</v>
       </c>
       <c r="H17" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>209</v>
+      </c>
+      <c r="J17" t="n">
+        <v>431</v>
+      </c>
+      <c r="K17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -928,23 +1057,30 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>2429931805.192863</v>
+        <v>2521173804.313677</v>
       </c>
       <c r="F18" t="n">
-        <v>0.134616005824455</v>
+        <v>0.1440939902808095</v>
       </c>
       <c r="G18" t="n">
-        <v>0.029896191975969</v>
+        <v>0.02177779509467932</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
       </c>
+      <c r="I18" t="n">
+        <v>111</v>
+      </c>
+      <c r="J18" t="n">
+        <v>427</v>
+      </c>
+      <c r="K18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -956,23 +1092,30 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>910080974.300953</v>
+        <v>893669409.5669658</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1194367317000593</v>
+        <v>0.1803219991629438</v>
       </c>
       <c r="G19" t="n">
-        <v>0.01856982701189594</v>
+        <v>0.02188948992200728</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
       </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -984,23 +1127,30 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2489628807.324718</v>
+        <v>2622583190.675711</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1369740977784782</v>
+        <v>0.1366911104980389</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02199319193268123</v>
+        <v>0.02994153142690966</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
       </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1012,23 +1162,30 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2600857034.047647</v>
+        <v>2554828402.845365</v>
       </c>
       <c r="F21" t="n">
-        <v>0.07665641282230559</v>
+        <v>0.08984222346495314</v>
       </c>
       <c r="G21" t="n">
-        <v>0.034646916385235</v>
+        <v>0.03384651293329795</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
       </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1040,23 +1197,30 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>2958088055.286263</v>
+        <v>3816360863.577663</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1208011233005353</v>
+        <v>0.0963095810277822</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04565539429396533</v>
+        <v>0.0361986640339853</v>
       </c>
       <c r="H22" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I22" t="n">
+        <v>124</v>
+      </c>
+      <c r="J22" t="n">
+        <v>431</v>
+      </c>
+      <c r="K22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1074,17 +1238,24 @@
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1432284769.920149</v>
+        <v>1011682302.947917</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1142715693013312</v>
+        <v>0.1441589779150387</v>
       </c>
       <c r="G23" t="n">
-        <v>0.03728426188619269</v>
+        <v>0.0468632504789871</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
       </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1096,23 +1267,30 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>2613949270.007826</v>
+        <v>3263149181.078651</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1441825423417468</v>
+        <v>0.1192097411247966</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03361726898978423</v>
+        <v>0.02589728948069561</v>
       </c>
       <c r="H24" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>137</v>
+      </c>
+      <c r="J24" t="n">
+        <v>429</v>
+      </c>
+      <c r="K24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1124,23 +1302,30 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1206905032.808494</v>
+        <v>1061290620.10164</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1002002938752317</v>
+        <v>0.1199630409370716</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02834297533264196</v>
+        <v>0.01886396042007516</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
       </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1152,23 +1337,30 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1308909011.848408</v>
+        <v>969271821.1957796</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1138340169586044</v>
+        <v>0.08051569333095059</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02618060163405942</v>
+        <v>0.02412462324691663</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
       </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1180,23 +1372,30 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3294297643.772345</v>
+        <v>3554415427.621649</v>
       </c>
       <c r="F27" t="n">
-        <v>0.09917664612076103</v>
+        <v>0.1215843557268515</v>
       </c>
       <c r="G27" t="n">
-        <v>0.01900732555198034</v>
+        <v>0.02081525069505209</v>
       </c>
       <c r="H27" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
+        <v>185</v>
+      </c>
+      <c r="J27" t="n">
+        <v>428</v>
+      </c>
+      <c r="K27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1208,23 +1407,30 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3301769831.547713</v>
+        <v>3820254490.358619</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1378842338336198</v>
+        <v>0.115773996471712</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04002316830668656</v>
+        <v>0.04253439019816475</v>
       </c>
       <c r="H28" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I28" t="n">
+        <v>105</v>
+      </c>
+      <c r="J28" t="n">
+        <v>431</v>
+      </c>
+      <c r="K28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1236,23 +1442,30 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4735408027.85691</v>
+        <v>4049781918.110054</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1054154775202591</v>
+        <v>0.108115884912483</v>
       </c>
       <c r="G29" t="n">
-        <v>0.02898635643038538</v>
+        <v>0.0373330213675487</v>
       </c>
       <c r="H29" t="b">
         <v>1</v>
       </c>
+      <c r="I29" t="n">
+        <v>356</v>
+      </c>
+      <c r="J29" t="n">
+        <v>431</v>
+      </c>
+      <c r="K29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1264,23 +1477,30 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2063355695.314677</v>
+        <v>1684959836.963314</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1185057135632939</v>
+        <v>0.1247128420031434</v>
       </c>
       <c r="G30" t="n">
-        <v>0.02436372328844227</v>
+        <v>0.03141952621641795</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
       </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1298,17 +1518,24 @@
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1133907022.059586</v>
+        <v>1067567363.814811</v>
       </c>
       <c r="F31" t="n">
-        <v>0.08016896635694491</v>
+        <v>0.06807546236182137</v>
       </c>
       <c r="G31" t="n">
-        <v>0.05222823380038556</v>
+        <v>0.03669796218042376</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
       </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1320,23 +1547,30 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1510932529.379942</v>
+        <v>1865834261.278531</v>
       </c>
       <c r="F32" t="n">
-        <v>0.09046568857988534</v>
+        <v>0.1000135425538619</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02393757070410586</v>
+        <v>0.03208191739094832</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
       </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1348,23 +1582,30 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>3087734545.212675</v>
+        <v>2171533492.925821</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1944498163136986</v>
+        <v>0.1422441216342122</v>
       </c>
       <c r="G33" t="n">
-        <v>0.04633996727661795</v>
+        <v>0.05342927751237254</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
       </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1376,23 +1617,30 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1361303895.579114</v>
+        <v>1143177254.238847</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1121151381475361</v>
+        <v>0.0944239976320656</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02053234490596054</v>
+        <v>0.02148296894732707</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
       </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1404,23 +1652,30 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1272285483.779045</v>
+        <v>1226477346.918306</v>
       </c>
       <c r="F35" t="n">
-        <v>0.09488562393219523</v>
+        <v>0.1016146977455702</v>
       </c>
       <c r="G35" t="n">
-        <v>0.0332426159539238</v>
+        <v>0.03239167290036798</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
       </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1432,23 +1687,30 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2471021605.860991</v>
+        <v>2832007094.110178</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1444333979390527</v>
+        <v>0.1298750472135201</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02412311183144641</v>
+        <v>0.02787956676563232</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
       </c>
+      <c r="I36" t="n">
+        <v>3</v>
+      </c>
+      <c r="J36" t="n">
+        <v>144</v>
+      </c>
+      <c r="K36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1460,23 +1722,30 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2060786716.097385</v>
+        <v>2100678216.287945</v>
       </c>
       <c r="F37" t="n">
-        <v>0.1026544121573456</v>
+        <v>0.1075177155438984</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03651237199405126</v>
+        <v>0.0310991052402519</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
       </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1494,17 +1763,24 @@
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1569056203.228009</v>
+        <v>2108480209.480345</v>
       </c>
       <c r="F38" t="n">
-        <v>0.07773674175959101</v>
+        <v>0.1135203068486815</v>
       </c>
       <c r="G38" t="n">
-        <v>0.02731629827115346</v>
+        <v>0.02875352514210017</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
       </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1516,23 +1792,30 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1680776981.27169</v>
+        <v>1707552407.526942</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1297195656972766</v>
+        <v>0.181806698909521</v>
       </c>
       <c r="G39" t="n">
-        <v>0.03096891674000665</v>
+        <v>0.02525795298758455</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
       </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1550,17 +1833,24 @@
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1310373865.667786</v>
+        <v>1214350865.67658</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1627680741247366</v>
+        <v>0.122966636055049</v>
       </c>
       <c r="G40" t="n">
-        <v>0.04663305488376241</v>
+        <v>0.04027190198102384</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
       </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1572,23 +1862,30 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2176926254.488764</v>
+        <v>2413598775.353822</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1596134921364114</v>
+        <v>0.1062669154729255</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03446494355347181</v>
+        <v>0.04506585168675942</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
       </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1600,22 +1897,31 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3691516897.816068</v>
+        <v>2857787853.734704</v>
       </c>
       <c r="F42" t="n">
-        <v>0.08364136480598387</v>
+        <v>0.1243537214962415</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03362058560765353</v>
+        <v>0.04036503224004204</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
+      </c>
+      <c r="I42" t="n">
+        <v>185</v>
+      </c>
+      <c r="J42" t="n">
+        <v>430</v>
+      </c>
+      <c r="K42" t="n">
+        <v>22.82304875865472</v>
       </c>
     </row>
     <row r="43">
@@ -1628,23 +1934,30 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2264854577.836136</v>
+        <v>2355688896.030899</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1396915996706709</v>
+        <v>0.1746393890850839</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01709766524582011</v>
+        <v>0.01641817496697508</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
       </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1662,17 +1975,24 @@
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>2135170510.045016</v>
+        <v>2319639808.516118</v>
       </c>
       <c r="F44" t="n">
-        <v>0.08819951369180858</v>
+        <v>0.07083132492860775</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02304025048678621</v>
+        <v>0.02963481077295693</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
       </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1684,23 +2004,30 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1767441865.660711</v>
+        <v>1784259728.48614</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1247817591658869</v>
+        <v>0.1656879405875454</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04780006570205992</v>
+        <v>0.03853350468321883</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
       </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1712,22 +2039,31 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>5628053637.90591</v>
+        <v>5087971024.14598</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1672700361145282</v>
+        <v>0.1732254509111839</v>
       </c>
       <c r="G46" t="n">
-        <v>0.05105720982600304</v>
+        <v>0.04866540451022354</v>
       </c>
       <c r="H46" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
+        <v>257</v>
+      </c>
+      <c r="J46" t="n">
+        <v>430</v>
+      </c>
+      <c r="K46" t="n">
+        <v>37.08402759000526</v>
       </c>
     </row>
     <row r="47">
@@ -1740,22 +2076,31 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3708456723.781943</v>
+        <v>4905033905.882691</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1868352017488226</v>
+        <v>0.1253685871505097</v>
       </c>
       <c r="G47" t="n">
-        <v>0.0521624967836543</v>
+        <v>0.05257681633274917</v>
       </c>
       <c r="H47" t="b">
         <v>1</v>
+      </c>
+      <c r="I47" t="n">
+        <v>193</v>
+      </c>
+      <c r="J47" t="n">
+        <v>431</v>
+      </c>
+      <c r="K47" t="n">
+        <v>40.14388225083361</v>
       </c>
     </row>
     <row r="48">
@@ -1768,23 +2113,30 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>4257962913.261467</v>
+        <v>3569869464.835675</v>
       </c>
       <c r="F48" t="n">
-        <v>0.09820660948224602</v>
+        <v>0.08246579129793125</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03763196662941936</v>
+        <v>0.03346448181620446</v>
       </c>
       <c r="H48" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I48" t="n">
+        <v>220</v>
+      </c>
+      <c r="J48" t="n">
+        <v>431</v>
+      </c>
+      <c r="K48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1796,23 +2148,30 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1199275515.797049</v>
+        <v>1958307888.909482</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1522613674266388</v>
+        <v>0.1332634941379899</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03111913532407808</v>
+        <v>0.03947179828104082</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
       </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1824,23 +2183,30 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>4126374295.601269</v>
+        <v>3588398309.388898</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1260291026977421</v>
+        <v>0.1163478645628111</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04954052666325272</v>
+        <v>0.05096552221500802</v>
       </c>
       <c r="H50" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I50" t="n">
+        <v>150</v>
+      </c>
+      <c r="J50" t="n">
+        <v>431</v>
+      </c>
+      <c r="K50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -1858,17 +2224,24 @@
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>988629126.7215794</v>
+        <v>1131648585.784753</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1808593773927588</v>
+        <v>0.129687612106612</v>
       </c>
       <c r="G51" t="n">
-        <v>0.05166359743360996</v>
+        <v>0.05447736798399143</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
       </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1886,17 +2259,24 @@
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>3333499157.742756</v>
+        <v>4686770160.399001</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1194968107332896</v>
+        <v>0.1082386953126129</v>
       </c>
       <c r="G52" t="n">
-        <v>0.0429853447861212</v>
+        <v>0.06036653351126698</v>
       </c>
       <c r="H52" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I52" t="n">
+        <v>247</v>
+      </c>
+      <c r="J52" t="n">
+        <v>431</v>
+      </c>
+      <c r="K52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -1908,23 +2288,30 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3675186031.264035</v>
+        <v>2973872801.9925</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1670145200405765</v>
+        <v>0.1230269120719866</v>
       </c>
       <c r="G53" t="n">
-        <v>0.03036922093280116</v>
+        <v>0.03359425547526368</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
       </c>
+      <c r="I53" t="n">
+        <v>63</v>
+      </c>
+      <c r="J53" t="n">
+        <v>424</v>
+      </c>
+      <c r="K53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -1936,23 +2323,30 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4454884366.495614</v>
+        <v>4737067814.478515</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1022142690623928</v>
+        <v>0.1372032354953567</v>
       </c>
       <c r="G54" t="n">
-        <v>0.03232593055525732</v>
+        <v>0.04460403621188152</v>
       </c>
       <c r="H54" t="b">
         <v>1</v>
       </c>
+      <c r="I54" t="n">
+        <v>229</v>
+      </c>
+      <c r="J54" t="n">
+        <v>431</v>
+      </c>
+      <c r="K54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -1964,22 +2358,31 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3673674852.69724</v>
+        <v>4351976869.364071</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1471948627119953</v>
+        <v>0.1869834269538571</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02877637217004077</v>
+        <v>0.03211840808868945</v>
       </c>
       <c r="H55" t="b">
         <v>1</v>
+      </c>
+      <c r="I55" t="n">
+        <v>213</v>
+      </c>
+      <c r="J55" t="n">
+        <v>431</v>
+      </c>
+      <c r="K55" t="n">
+        <v>41.50007969531588</v>
       </c>
     </row>
     <row r="56">
@@ -1992,23 +2395,30 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1684226227.583177</v>
+        <v>1460810460.224492</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1382234394571673</v>
+        <v>0.1504474417671959</v>
       </c>
       <c r="G56" t="n">
-        <v>0.03816933324756169</v>
+        <v>0.05421071286578444</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
       </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2020,22 +2430,31 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>4082750536.49196</v>
+        <v>3350006711.090211</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1567631543280311</v>
+        <v>0.1721890163175554</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02378653615200074</v>
+        <v>0.02283599376314477</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
+      </c>
+      <c r="I57" t="n">
+        <v>188</v>
+      </c>
+      <c r="J57" t="n">
+        <v>430</v>
+      </c>
+      <c r="K57" t="n">
+        <v>26.49944179625944</v>
       </c>
     </row>
     <row r="58">
@@ -2048,23 +2467,30 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1761436617.74348</v>
+        <v>1422371281.489265</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1349621612413581</v>
+        <v>0.2021849900958402</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03874405407610663</v>
+        <v>0.03623904242467452</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
       </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2082,16 +2508,25 @@
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4966770293.779531</v>
+        <v>5088289647.468652</v>
       </c>
       <c r="F59" t="n">
-        <v>0.08245549870061086</v>
+        <v>0.1001475443751666</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03968311215045551</v>
+        <v>0.04133840317645132</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
+      </c>
+      <c r="I59" t="n">
+        <v>211</v>
+      </c>
+      <c r="J59" t="n">
+        <v>430</v>
+      </c>
+      <c r="K59" t="n">
+        <v>39.60743356289399</v>
       </c>
     </row>
     <row r="60">
@@ -2104,23 +2539,30 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3419743944.249416</v>
+        <v>2426242062.112881</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1635712161705419</v>
+        <v>0.1652298737527988</v>
       </c>
       <c r="G60" t="n">
-        <v>0.0264369389385324</v>
+        <v>0.03202247623989096</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
       </c>
+      <c r="I60" t="n">
+        <v>82</v>
+      </c>
+      <c r="J60" t="n">
+        <v>420</v>
+      </c>
+      <c r="K60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2132,23 +2574,30 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2323740178.450678</v>
+        <v>2847579921.22503</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1676123878421075</v>
+        <v>0.109696246534728</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02996158579902976</v>
+        <v>0.02429757043581366</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
       </c>
+      <c r="I61" t="n">
+        <v>14</v>
+      </c>
+      <c r="J61" t="n">
+        <v>412</v>
+      </c>
+      <c r="K61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2160,23 +2609,30 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1481558573.002797</v>
+        <v>1889399137.21735</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1767671913771659</v>
+        <v>0.1363848328150472</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03178734079105635</v>
+        <v>0.03261709936383594</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
       </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2188,22 +2644,31 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>3727087556.991357</v>
+        <v>4513036291.507247</v>
       </c>
       <c r="F63" t="n">
-        <v>0.1078500612310256</v>
+        <v>0.09459607172671997</v>
       </c>
       <c r="G63" t="n">
-        <v>0.04675670173836621</v>
+        <v>0.04318664153568805</v>
       </c>
       <c r="H63" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I63" t="n">
+        <v>215</v>
+      </c>
+      <c r="J63" t="n">
+        <v>430</v>
+      </c>
+      <c r="K63" t="n">
+        <v>39.41412430758911</v>
       </c>
     </row>
     <row r="64">
@@ -2216,22 +2681,31 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>5304642394.783668</v>
+        <v>3847429081.527508</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1262658960667458</v>
+        <v>0.1832605554855664</v>
       </c>
       <c r="G64" t="n">
-        <v>0.0256542409434989</v>
+        <v>0.03241835213449188</v>
       </c>
       <c r="H64" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I64" t="n">
+        <v>216</v>
+      </c>
+      <c r="J64" t="n">
+        <v>430</v>
+      </c>
+      <c r="K64" t="n">
+        <v>33.67808794378784</v>
       </c>
     </row>
     <row r="65">
@@ -2244,22 +2718,31 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5721801887.431403</v>
+        <v>3659004112.484302</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1387789530750334</v>
+        <v>0.1253684271068839</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02728554141687537</v>
+        <v>0.02622289420318544</v>
       </c>
       <c r="H65" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I65" t="n">
+        <v>313</v>
+      </c>
+      <c r="J65" t="n">
+        <v>430</v>
+      </c>
+      <c r="K65" t="n">
+        <v>30.38927651069906</v>
       </c>
     </row>
     <row r="66">
@@ -2272,23 +2755,30 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4430853781.035792</v>
+        <v>4678973545.397425</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1161827127144333</v>
+        <v>0.1298575976258089</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04978255856051599</v>
+        <v>0.03518454324258471</v>
       </c>
       <c r="H66" t="b">
         <v>1</v>
       </c>
+      <c r="I66" t="n">
+        <v>212</v>
+      </c>
+      <c r="J66" t="n">
+        <v>431</v>
+      </c>
+      <c r="K66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2300,23 +2790,30 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2610506754.059418</v>
+        <v>2900910709.39637</v>
       </c>
       <c r="F67" t="n">
-        <v>0.08637737109050266</v>
+        <v>0.08478037189323465</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04335252757822551</v>
+        <v>0.03822760165433999</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
       </c>
+      <c r="I67" t="n">
+        <v>11</v>
+      </c>
+      <c r="J67" t="n">
+        <v>389</v>
+      </c>
+      <c r="K67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2328,22 +2825,31 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>4327399950.167766</v>
+        <v>5414577581.461255</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1490670780490758</v>
+        <v>0.1435815524237687</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04752381047196134</v>
+        <v>0.03168086408135158</v>
       </c>
       <c r="H68" t="b">
         <v>1</v>
+      </c>
+      <c r="I68" t="n">
+        <v>235</v>
+      </c>
+      <c r="J68" t="n">
+        <v>431</v>
+      </c>
+      <c r="K68" t="n">
+        <v>39.6485862961655</v>
       </c>
     </row>
     <row r="69">
@@ -2356,23 +2862,30 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1993886178.674559</v>
+        <v>1716815422.633311</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1108518508683029</v>
+        <v>0.1608585308258093</v>
       </c>
       <c r="G69" t="n">
-        <v>0.04049532820632511</v>
+        <v>0.04698361699842681</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
       </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2384,22 +2897,31 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3155247961.581971</v>
+        <v>3555213631.238077</v>
       </c>
       <c r="F70" t="n">
-        <v>0.0905534884235471</v>
+        <v>0.09702886133142272</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03126698863938776</v>
+        <v>0.03989644154391803</v>
       </c>
       <c r="H70" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I70" t="n">
+        <v>58</v>
+      </c>
+      <c r="J70" t="n">
+        <v>431</v>
+      </c>
+      <c r="K70" t="n">
+        <v>43.61798689403516</v>
       </c>
     </row>
     <row r="71">
@@ -2412,23 +2934,30 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>3550575911.721146</v>
+        <v>3784202748.397555</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1825969118393189</v>
+        <v>0.1700190767765247</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02130742510681347</v>
+        <v>0.03084114160013345</v>
       </c>
       <c r="H71" t="b">
         <v>1</v>
       </c>
+      <c r="I71" t="n">
+        <v>299</v>
+      </c>
+      <c r="J71" t="n">
+        <v>431</v>
+      </c>
+      <c r="K71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2440,23 +2969,30 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>2194874042.845275</v>
+        <v>2019419920.76275</v>
       </c>
       <c r="F72" t="n">
-        <v>0.08199685012595505</v>
+        <v>0.09391724141339072</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04805953696713473</v>
+        <v>0.0347152911036032</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
       </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2468,23 +3004,30 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2764844532.514569</v>
+        <v>2857532645.136788</v>
       </c>
       <c r="F73" t="n">
-        <v>0.09683302745182965</v>
+        <v>0.07954570866731545</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04394895889524911</v>
+        <v>0.05104972472399914</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
       </c>
+      <c r="I73" t="n">
+        <v>30</v>
+      </c>
+      <c r="J73" t="n">
+        <v>426</v>
+      </c>
+      <c r="K73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2496,22 +3039,31 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3984283691.387049</v>
+        <v>3254847890.183636</v>
       </c>
       <c r="F74" t="n">
-        <v>0.141264743825762</v>
+        <v>0.123399106163529</v>
       </c>
       <c r="G74" t="n">
-        <v>0.0217958974679831</v>
+        <v>0.025797082960806</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
+      </c>
+      <c r="I74" t="n">
+        <v>126</v>
+      </c>
+      <c r="J74" t="n">
+        <v>430</v>
+      </c>
+      <c r="K74" t="n">
+        <v>30.11349677609451</v>
       </c>
     </row>
     <row r="75">
@@ -2524,23 +3076,30 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1732986731.628449</v>
+        <v>2400269403.733821</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1014696972058552</v>
+        <v>0.1109670496824186</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03490304513812902</v>
+        <v>0.02378429046278133</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
       </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2552,23 +3111,30 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4502918803.605322</v>
+        <v>3622731097.765788</v>
       </c>
       <c r="F76" t="n">
-        <v>0.07707710698256658</v>
+        <v>0.1021410084062022</v>
       </c>
       <c r="G76" t="n">
-        <v>0.03121227556670503</v>
+        <v>0.03171522534528121</v>
       </c>
       <c r="H76" t="b">
         <v>1</v>
       </c>
+      <c r="I76" t="n">
+        <v>205</v>
+      </c>
+      <c r="J76" t="n">
+        <v>431</v>
+      </c>
+      <c r="K76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2586,17 +3152,24 @@
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>2101116789.170768</v>
+        <v>1609419461.451237</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1860745865752851</v>
+        <v>0.1585039586117545</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02797914555250646</v>
+        <v>0.02214063075085637</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
       </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2608,22 +3181,31 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3004149826.490608</v>
+        <v>4472767881.058641</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1313471244164594</v>
+        <v>0.1083594384243837</v>
       </c>
       <c r="G78" t="n">
-        <v>0.05114926359273832</v>
+        <v>0.05131180553979574</v>
       </c>
       <c r="H78" t="b">
         <v>1</v>
+      </c>
+      <c r="I78" t="n">
+        <v>216</v>
+      </c>
+      <c r="J78" t="n">
+        <v>431</v>
+      </c>
+      <c r="K78" t="n">
+        <v>41.4122319438313</v>
       </c>
     </row>
     <row r="79">
@@ -2636,23 +3218,30 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1525173046.975567</v>
+        <v>1581356784.505363</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1474138876431841</v>
+        <v>0.11758941693263</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03157241157866931</v>
+        <v>0.03936297437248878</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
       </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -2664,22 +3253,31 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4453210171.642694</v>
+        <v>5074412639.888752</v>
       </c>
       <c r="F80" t="n">
-        <v>0.07683389530511213</v>
+        <v>0.1055019690677537</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02380323466937335</v>
+        <v>0.02355825570976321</v>
       </c>
       <c r="H80" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I80" t="n">
+        <v>210</v>
+      </c>
+      <c r="J80" t="n">
+        <v>430</v>
+      </c>
+      <c r="K80" t="n">
+        <v>34.63928113567019</v>
       </c>
     </row>
     <row r="81">
@@ -2692,22 +3290,31 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4826113217.491923</v>
+        <v>4256526638.550601</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1018989647530715</v>
+        <v>0.09638517960848379</v>
       </c>
       <c r="G81" t="n">
-        <v>0.03049366380196141</v>
+        <v>0.0258711999474175</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
+      </c>
+      <c r="I81" t="n">
+        <v>200</v>
+      </c>
+      <c r="J81" t="n">
+        <v>430</v>
+      </c>
+      <c r="K81" t="n">
+        <v>39.10956973649014</v>
       </c>
     </row>
     <row r="82">
@@ -2720,22 +3327,31 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>3762590710.421111</v>
+        <v>4179507133.791484</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1597855743192334</v>
+        <v>0.1479034893948557</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02511970248379703</v>
+        <v>0.02952239279830743</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
+      </c>
+      <c r="I82" t="n">
+        <v>291</v>
+      </c>
+      <c r="J82" t="n">
+        <v>430</v>
+      </c>
+      <c r="K82" t="n">
+        <v>39.16930064347605</v>
       </c>
     </row>
     <row r="83">
@@ -2754,17 +3370,24 @@
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1809137884.760925</v>
+        <v>2005311842.214564</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1205487119510481</v>
+        <v>0.1151714585594796</v>
       </c>
       <c r="G83" t="n">
-        <v>0.02842620989968004</v>
+        <v>0.03768987579111367</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
       </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -2776,23 +3399,30 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1744676988.203436</v>
+        <v>1594415003.56024</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1029343600607947</v>
+        <v>0.120071707060014</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03658465642828542</v>
+        <v>0.04069946311644544</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
       </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -2804,22 +3434,31 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3200227429.657174</v>
+        <v>2671870321.000451</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1134932216957849</v>
+        <v>0.1310091340624236</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04988225491623965</v>
+        <v>0.03818821176534484</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
+      </c>
+      <c r="I85" t="n">
+        <v>57</v>
+      </c>
+      <c r="J85" t="n">
+        <v>430</v>
+      </c>
+      <c r="K85" t="n">
+        <v>35.2653746881366</v>
       </c>
     </row>
     <row r="86">
@@ -2832,23 +3471,30 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2442188820.673453</v>
+        <v>1742433063.969959</v>
       </c>
       <c r="F86" t="n">
-        <v>0.166430461780668</v>
+        <v>0.1501035399540283</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02287368437478644</v>
+        <v>0.02311762658792669</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
       </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -2866,17 +3512,24 @@
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1142248139.969423</v>
+        <v>1245207704.30825</v>
       </c>
       <c r="F87" t="n">
-        <v>0.129169544157985</v>
+        <v>0.1148783088820113</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03324452750821267</v>
+        <v>0.03456521595763028</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
       </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -2888,22 +3541,31 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3289029521.433059</v>
+        <v>2521018330.734063</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1194878333682721</v>
+        <v>0.1676703604229147</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03773153220758863</v>
+        <v>0.02616557485973276</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
+      </c>
+      <c r="I88" t="n">
+        <v>58</v>
+      </c>
+      <c r="J88" t="n">
+        <v>430</v>
+      </c>
+      <c r="K88" t="n">
+        <v>23.81760793034467</v>
       </c>
     </row>
     <row r="89">
@@ -2916,23 +3578,30 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>3147917985.045163</v>
+        <v>3344640677.552971</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1385431113751447</v>
+        <v>0.1051206341115987</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03818098362231293</v>
+        <v>0.03167614321708265</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
       </c>
+      <c r="I89" t="n">
+        <v>26</v>
+      </c>
+      <c r="J89" t="n">
+        <v>333</v>
+      </c>
+      <c r="K89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -2944,23 +3613,30 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1378541509.677885</v>
+        <v>1775556182.832781</v>
       </c>
       <c r="F90" t="n">
-        <v>0.08542103052910803</v>
+        <v>0.126769429302217</v>
       </c>
       <c r="G90" t="n">
-        <v>0.03892626684960328</v>
+        <v>0.04489410490231605</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
       </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -2972,23 +3648,30 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>2086104220.219252</v>
+        <v>1825483123.899187</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1719585940017897</v>
+        <v>0.1787842180016851</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04367096974635711</v>
+        <v>0.04687201673453582</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
       </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3000,23 +3683,30 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2016364035.232912</v>
+        <v>2180327986.640995</v>
       </c>
       <c r="F92" t="n">
-        <v>0.09940355589191215</v>
+        <v>0.1088679756461786</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03303148811193061</v>
+        <v>0.0326123253637239</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
       </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3028,22 +3718,31 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4830213340.960352</v>
+        <v>4923342412.05757</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1219531057017949</v>
+        <v>0.09836370603797416</v>
       </c>
       <c r="G93" t="n">
-        <v>0.03558877657360082</v>
+        <v>0.04987760980736868</v>
       </c>
       <c r="H93" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I93" t="n">
+        <v>207</v>
+      </c>
+      <c r="J93" t="n">
+        <v>430</v>
+      </c>
+      <c r="K93" t="n">
+        <v>37.98343810137379</v>
       </c>
     </row>
     <row r="94">
@@ -3062,17 +3761,24 @@
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1801299208.674839</v>
+        <v>1558595631.64152</v>
       </c>
       <c r="F94" t="n">
-        <v>0.151916074960409</v>
+        <v>0.1587056297257583</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03244218674592263</v>
+        <v>0.02654260538596331</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
       </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3084,23 +3790,30 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2747917395.142775</v>
+        <v>2131497587.421711</v>
       </c>
       <c r="F95" t="n">
-        <v>0.0993558956485754</v>
+        <v>0.1123037949228053</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04736196540533644</v>
+        <v>0.04150261133533491</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
       </c>
+      <c r="I95" t="n">
+        <v>2</v>
+      </c>
+      <c r="J95" t="n">
+        <v>127</v>
+      </c>
+      <c r="K95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3112,23 +3825,30 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1822154527.605341</v>
+        <v>1949394627.662815</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1059146453574957</v>
+        <v>0.1104040153858193</v>
       </c>
       <c r="G96" t="n">
-        <v>0.0461028596495166</v>
+        <v>0.04232515195690187</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
       </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3140,23 +3860,30 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4206588482.713981</v>
+        <v>5266411776.593931</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1339293024195048</v>
+        <v>0.1106747156274368</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02455172568994049</v>
+        <v>0.02537141457746084</v>
       </c>
       <c r="H97" t="b">
         <v>1</v>
       </c>
+      <c r="I97" t="n">
+        <v>225</v>
+      </c>
+      <c r="J97" t="n">
+        <v>431</v>
+      </c>
+      <c r="K97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3168,23 +3895,30 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3862817512.347351</v>
+        <v>3236987422.235897</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1022991212246078</v>
+        <v>0.1042587886942808</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02783435765303939</v>
+        <v>0.02012885129216631</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
       </c>
+      <c r="I98" t="n">
+        <v>109</v>
+      </c>
+      <c r="J98" t="n">
+        <v>426</v>
+      </c>
+      <c r="K98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3196,23 +3930,30 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2925903617.151051</v>
+        <v>2663226496.110371</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1129349262171977</v>
+        <v>0.1095074673637967</v>
       </c>
       <c r="G99" t="n">
-        <v>0.026387085184381</v>
+        <v>0.03264986359563476</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
       </c>
+      <c r="I99" t="n">
+        <v>9</v>
+      </c>
+      <c r="J99" t="n">
+        <v>386</v>
+      </c>
+      <c r="K99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3224,23 +3965,30 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4519580859.652855</v>
+        <v>3123402120.647076</v>
       </c>
       <c r="F100" t="n">
-        <v>0.109093817867368</v>
+        <v>0.1264636993337942</v>
       </c>
       <c r="G100" t="n">
-        <v>0.01788584587701486</v>
+        <v>0.02137012855266516</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
       </c>
+      <c r="I100" t="n">
+        <v>201</v>
+      </c>
+      <c r="J100" t="n">
+        <v>429</v>
+      </c>
+      <c r="K100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3252,23 +4000,30 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3200018477.564689</v>
+        <v>2365565408.245969</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1463071283301607</v>
+        <v>0.2047683489603803</v>
       </c>
       <c r="G101" t="n">
-        <v>0.05590659056138555</v>
+        <v>0.04052044724687744</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
       </c>
+      <c r="I101" t="n">
+        <v>38</v>
+      </c>
+      <c r="J101" t="n">
+        <v>400</v>
+      </c>
+      <c r="K101" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
